--- a/data/armors.xlsx
+++ b/data/armors.xlsx
@@ -6188,7 +6188,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
       <c r="G2" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6240,7 +6240,7 @@
       <c r="G3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6266,7 +6266,7 @@
       <c r="G4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6292,7 +6292,7 @@
       <c r="G5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6318,7 +6318,7 @@
       <c r="G6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6344,7 +6344,7 @@
       <c r="G7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6393,7 +6393,7 @@
       <c r="G9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6419,7 +6419,7 @@
       <c r="G10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6445,7 +6445,7 @@
       <c r="G11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       <c r="G12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6497,7 +6497,7 @@
       <c r="G13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6523,7 +6523,7 @@
       <c r="G14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6549,7 +6549,7 @@
       <c r="G15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6575,7 +6575,7 @@
       <c r="G16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6601,7 +6601,7 @@
       <c r="G17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6627,7 +6627,7 @@
       <c r="G18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6653,7 +6653,7 @@
       <c r="G19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6679,7 +6679,7 @@
       <c r="G20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6705,7 +6705,7 @@
       <c r="G21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6731,7 +6731,7 @@
       <c r="G22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6757,7 +6757,7 @@
       <c r="G23" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6783,7 +6783,7 @@
       <c r="G24" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -6809,7 +6809,7 @@
       <c r="G25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6835,7 +6835,7 @@
       <c r="G26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6861,7 +6861,7 @@
       <c r="G27" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6887,7 +6887,7 @@
       <c r="G28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       <c r="G29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6939,7 +6939,7 @@
       <c r="G30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6965,7 +6965,7 @@
       <c r="G31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6991,7 +6991,7 @@
       <c r="G32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7017,7 +7017,7 @@
       <c r="G33" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -7043,7 +7043,7 @@
       <c r="G34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -7069,7 +7069,7 @@
       <c r="G35" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -7095,7 +7095,7 @@
       <c r="G36" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7121,7 +7121,7 @@
       <c r="G37" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7147,7 +7147,7 @@
       <c r="G38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7173,7 +7173,7 @@
       <c r="G39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7199,7 +7199,7 @@
       <c r="G40" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7225,7 +7225,7 @@
       <c r="G41" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>126</v>
       </c>
     </row>
@@ -7251,7 +7251,7 @@
       <c r="G42" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7277,7 +7277,7 @@
       <c r="G43" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -7303,7 +7303,7 @@
       <c r="G44" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>134</v>
       </c>
     </row>
@@ -7329,7 +7329,7 @@
       <c r="G45" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7355,7 +7355,7 @@
       <c r="G46" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>140</v>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       <c r="G47" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>143</v>
       </c>
     </row>
@@ -7407,7 +7407,7 @@
       <c r="G48" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7433,7 +7433,7 @@
       <c r="G49" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>149</v>
       </c>
     </row>
@@ -7459,7 +7459,7 @@
       <c r="G50" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -7554,7 +7554,7 @@
       <c r="G54" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>161</v>
       </c>
     </row>
@@ -7580,7 +7580,7 @@
       <c r="G55" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -7606,7 +7606,7 @@
       <c r="G56" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>167</v>
       </c>
     </row>
@@ -7655,7 +7655,7 @@
       <c r="G58" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7681,7 +7681,7 @@
       <c r="G59" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7707,7 +7707,7 @@
       <c r="G60" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>178</v>
       </c>
     </row>
@@ -7733,7 +7733,7 @@
       <c r="G61" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>181</v>
       </c>
     </row>
@@ -7759,7 +7759,7 @@
       <c r="G62" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>184</v>
       </c>
     </row>
@@ -7785,7 +7785,7 @@
       <c r="G63" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>187</v>
       </c>
     </row>
@@ -7811,7 +7811,7 @@
       <c r="G64" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>190</v>
       </c>
     </row>
@@ -7837,7 +7837,7 @@
       <c r="G65" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>192</v>
       </c>
     </row>
@@ -7863,7 +7863,7 @@
       <c r="G66" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>195</v>
       </c>
     </row>
@@ -7889,7 +7889,7 @@
       <c r="G67" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>198</v>
       </c>
     </row>
@@ -7915,7 +7915,7 @@
       <c r="G68" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>201</v>
       </c>
     </row>
@@ -7941,7 +7941,7 @@
       <c r="G69" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>204</v>
       </c>
     </row>
@@ -7967,7 +7967,7 @@
       <c r="G70" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>207</v>
       </c>
     </row>
@@ -7993,7 +7993,7 @@
       <c r="G71" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>210</v>
       </c>
     </row>
@@ -8019,7 +8019,7 @@
       <c r="G72" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>213</v>
       </c>
     </row>
@@ -8045,7 +8045,7 @@
       <c r="G73" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>216</v>
       </c>
     </row>
@@ -8071,7 +8071,7 @@
       <c r="G74" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>219</v>
       </c>
     </row>
@@ -8097,7 +8097,7 @@
       <c r="G75" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>222</v>
       </c>
     </row>
@@ -8123,7 +8123,7 @@
       <c r="G76" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>225</v>
       </c>
     </row>
@@ -8149,7 +8149,7 @@
       <c r="G77" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>228</v>
       </c>
     </row>
@@ -8175,7 +8175,7 @@
       <c r="G78" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -8201,7 +8201,7 @@
       <c r="G79" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -8227,7 +8227,7 @@
       <c r="G80" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8253,7 +8253,7 @@
       <c r="G81" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8279,7 +8279,7 @@
       <c r="G82" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>242</v>
       </c>
     </row>
@@ -8305,7 +8305,7 @@
       <c r="G83" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>245</v>
       </c>
     </row>
@@ -8331,7 +8331,7 @@
       <c r="G84" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>248</v>
       </c>
     </row>
@@ -8357,7 +8357,7 @@
       <c r="G85" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>251</v>
       </c>
     </row>
@@ -8383,7 +8383,7 @@
       <c r="G86" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>254</v>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       <c r="G87" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>257</v>
       </c>
     </row>
@@ -8435,7 +8435,7 @@
       <c r="G88" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>259</v>
       </c>
     </row>
@@ -8461,7 +8461,7 @@
       <c r="G89" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>262</v>
       </c>
     </row>
@@ -8487,7 +8487,7 @@
       <c r="G90" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>265</v>
       </c>
     </row>
@@ -8513,7 +8513,7 @@
       <c r="G91" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>268</v>
       </c>
     </row>
@@ -8539,7 +8539,7 @@
       <c r="G92" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="H92" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -8565,7 +8565,7 @@
       <c r="G93" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="H93" s="2" t="s">
         <v>274</v>
       </c>
     </row>
@@ -8591,7 +8591,7 @@
       <c r="G94" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="H94" s="2" t="s">
         <v>277</v>
       </c>
     </row>
@@ -8617,7 +8617,7 @@
       <c r="G95" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="H95" s="2" t="s">
         <v>280</v>
       </c>
     </row>
@@ -8643,7 +8643,7 @@
       <c r="G96" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>283</v>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       <c r="G97" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="H97" s="2" t="s">
         <v>285</v>
       </c>
     </row>
@@ -8695,7 +8695,7 @@
       <c r="G98" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="H98" s="2" t="s">
         <v>288</v>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       <c r="G99" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I99" s="2" t="s">
+      <c r="H99" s="2" t="s">
         <v>291</v>
       </c>
     </row>
@@ -8747,7 +8747,7 @@
       <c r="G100" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="H100" s="2" t="s">
         <v>294</v>
       </c>
     </row>
@@ -8773,7 +8773,7 @@
       <c r="G101" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="H101" s="2" t="s">
         <v>297</v>
       </c>
     </row>
@@ -8799,7 +8799,7 @@
       <c r="G102" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="H102" s="2" t="s">
         <v>300</v>
       </c>
     </row>
@@ -8825,7 +8825,7 @@
       <c r="G103" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I103" s="2" t="s">
+      <c r="H103" s="2" t="s">
         <v>303</v>
       </c>
     </row>
@@ -8851,7 +8851,7 @@
       <c r="G104" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I104" s="2" t="s">
+      <c r="H104" s="2" t="s">
         <v>306</v>
       </c>
     </row>
@@ -8877,7 +8877,7 @@
       <c r="G105" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="H105" s="2" t="s">
         <v>309</v>
       </c>
     </row>
@@ -8903,7 +8903,7 @@
       <c r="G106" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I106" s="2" t="s">
+      <c r="H106" s="2" t="s">
         <v>312</v>
       </c>
     </row>
@@ -8952,7 +8952,7 @@
       <c r="G108" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="H108" s="2" t="s">
         <v>317</v>
       </c>
     </row>
@@ -8978,7 +8978,7 @@
       <c r="G109" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="H109" s="2" t="s">
         <v>320</v>
       </c>
     </row>
@@ -9004,7 +9004,7 @@
       <c r="G110" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I110" s="2" t="s">
+      <c r="H110" s="2" t="s">
         <v>323</v>
       </c>
     </row>
@@ -9030,7 +9030,7 @@
       <c r="G111" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I111" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>325</v>
       </c>
     </row>
@@ -9056,7 +9056,7 @@
       <c r="G112" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I112" s="2" t="s">
+      <c r="H112" s="2" t="s">
         <v>328</v>
       </c>
     </row>
@@ -9128,7 +9128,7 @@
       <c r="G115" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I115" s="2" t="s">
+      <c r="H115" s="2" t="s">
         <v>334</v>
       </c>
     </row>
@@ -9154,7 +9154,7 @@
       <c r="G116" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I116" s="2" t="s">
+      <c r="H116" s="2" t="s">
         <v>337</v>
       </c>
     </row>
@@ -9180,7 +9180,7 @@
       <c r="G117" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I117" s="2" t="s">
+      <c r="H117" s="2" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9206,7 +9206,7 @@
       <c r="G118" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="H118" s="2" t="s">
         <v>343</v>
       </c>
     </row>
@@ -9232,7 +9232,7 @@
       <c r="G119" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="H119" s="2" t="s">
         <v>346</v>
       </c>
     </row>
@@ -9258,7 +9258,7 @@
       <c r="G120" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="H120" s="2" t="s">
         <v>349</v>
       </c>
     </row>
@@ -9284,7 +9284,7 @@
       <c r="G121" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I121" s="2" t="s">
+      <c r="H121" s="2" t="s">
         <v>352</v>
       </c>
     </row>
@@ -9310,7 +9310,7 @@
       <c r="G122" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I122" s="2" t="s">
+      <c r="H122" s="2" t="s">
         <v>355</v>
       </c>
     </row>
@@ -9336,7 +9336,7 @@
       <c r="G123" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I123" s="2" t="s">
+      <c r="H123" s="2" t="s">
         <v>358</v>
       </c>
     </row>
@@ -9362,7 +9362,7 @@
       <c r="G124" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I124" s="2" t="s">
+      <c r="H124" s="2" t="s">
         <v>361</v>
       </c>
     </row>
@@ -9388,7 +9388,7 @@
       <c r="G125" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I125" s="2" t="s">
+      <c r="H125" s="2" t="s">
         <v>364</v>
       </c>
     </row>
@@ -9414,7 +9414,7 @@
       <c r="G126" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I126" s="2" t="s">
+      <c r="H126" s="2" t="s">
         <v>366</v>
       </c>
     </row>
@@ -9440,7 +9440,7 @@
       <c r="G127" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I127" s="2" t="s">
+      <c r="H127" s="2" t="s">
         <v>369</v>
       </c>
     </row>
@@ -9466,7 +9466,7 @@
       <c r="G128" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I128" s="2" t="s">
+      <c r="H128" s="2" t="s">
         <v>372</v>
       </c>
     </row>
@@ -9492,7 +9492,7 @@
       <c r="G129" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I129" s="2" t="s">
+      <c r="H129" s="2" t="s">
         <v>375</v>
       </c>
     </row>
@@ -9518,7 +9518,7 @@
       <c r="G130" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I130" s="2" t="s">
+      <c r="H130" s="2" t="s">
         <v>378</v>
       </c>
     </row>
@@ -9544,7 +9544,7 @@
       <c r="G131" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I131" s="2" t="s">
+      <c r="H131" s="2" t="s">
         <v>381</v>
       </c>
     </row>
@@ -9570,7 +9570,7 @@
       <c r="G132" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I132" s="2" t="s">
+      <c r="H132" s="2" t="s">
         <v>384</v>
       </c>
     </row>
@@ -9596,7 +9596,7 @@
       <c r="G133" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I133" s="2" t="s">
+      <c r="H133" s="2" t="s">
         <v>387</v>
       </c>
     </row>
@@ -9622,7 +9622,7 @@
       <c r="G134" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I134" s="2" t="s">
+      <c r="H134" s="2" t="s">
         <v>390</v>
       </c>
     </row>
@@ -9648,7 +9648,7 @@
       <c r="G135" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I135" s="2" t="s">
+      <c r="H135" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9674,7 +9674,7 @@
       <c r="G136" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I136" s="2" t="s">
+      <c r="H136" s="2" t="s">
         <v>396</v>
       </c>
     </row>
@@ -9700,7 +9700,7 @@
       <c r="G137" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I137" s="2" t="s">
+      <c r="H137" s="2" t="s">
         <v>399</v>
       </c>
     </row>
@@ -9726,7 +9726,7 @@
       <c r="G138" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I138" s="2" t="s">
+      <c r="H138" s="2" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9752,7 +9752,7 @@
       <c r="G139" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I139" s="2" t="s">
+      <c r="H139" s="2" t="s">
         <v>404</v>
       </c>
     </row>
@@ -9778,7 +9778,7 @@
       <c r="G140" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I140" s="2" t="s">
+      <c r="H140" s="2" t="s">
         <v>407</v>
       </c>
     </row>
@@ -9804,7 +9804,7 @@
       <c r="G141" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I141" s="2" t="s">
+      <c r="H141" s="2" t="s">
         <v>410</v>
       </c>
     </row>
@@ -9830,7 +9830,7 @@
       <c r="G142" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I142" s="2" t="s">
+      <c r="H142" s="2" t="s">
         <v>413</v>
       </c>
     </row>
@@ -9856,7 +9856,7 @@
       <c r="G143" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I143" s="2" t="s">
+      <c r="H143" s="2" t="s">
         <v>415</v>
       </c>
     </row>
@@ -9882,7 +9882,7 @@
       <c r="G144" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I144" s="2" t="s">
+      <c r="H144" s="2" t="s">
         <v>418</v>
       </c>
     </row>
@@ -9908,7 +9908,7 @@
       <c r="G145" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I145" s="2" t="s">
+      <c r="H145" s="2" t="s">
         <v>421</v>
       </c>
     </row>
@@ -9934,7 +9934,7 @@
       <c r="G146" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I146" s="2" t="s">
+      <c r="H146" s="2" t="s">
         <v>423</v>
       </c>
     </row>
@@ -9960,7 +9960,7 @@
       <c r="G147" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I147" s="2" t="s">
+      <c r="H147" s="2" t="s">
         <v>426</v>
       </c>
     </row>
@@ -9986,7 +9986,7 @@
       <c r="G148" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I148" s="2" t="s">
+      <c r="H148" s="2" t="s">
         <v>429</v>
       </c>
     </row>
@@ -10012,7 +10012,7 @@
       <c r="G149" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I149" s="2" t="s">
+      <c r="H149" s="2" t="s">
         <v>432</v>
       </c>
     </row>
@@ -10038,7 +10038,7 @@
       <c r="G150" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I150" s="2" t="s">
+      <c r="H150" s="2" t="s">
         <v>435</v>
       </c>
     </row>
@@ -10064,7 +10064,7 @@
       <c r="G151" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I151" s="2" t="s">
+      <c r="H151" s="2" t="s">
         <v>438</v>
       </c>
     </row>
@@ -10090,7 +10090,7 @@
       <c r="G152" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I152" s="2" t="s">
+      <c r="H152" s="2" t="s">
         <v>441</v>
       </c>
     </row>
@@ -10116,7 +10116,7 @@
       <c r="G153" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I153" s="2" t="s">
+      <c r="H153" s="2" t="s">
         <v>444</v>
       </c>
     </row>
@@ -10142,7 +10142,7 @@
       <c r="G154" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I154" s="2" t="s">
+      <c r="H154" s="2" t="s">
         <v>447</v>
       </c>
     </row>
@@ -10168,7 +10168,7 @@
       <c r="G155" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I155" s="2" t="s">
+      <c r="H155" s="2" t="s">
         <v>450</v>
       </c>
     </row>
@@ -10194,7 +10194,7 @@
       <c r="G156" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I156" s="2" t="s">
+      <c r="H156" s="2" t="s">
         <v>452</v>
       </c>
     </row>
@@ -10220,7 +10220,7 @@
       <c r="G157" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I157" s="2" t="s">
+      <c r="H157" s="2" t="s">
         <v>455</v>
       </c>
     </row>
@@ -10246,7 +10246,7 @@
       <c r="G158" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I158" s="2" t="s">
+      <c r="H158" s="2" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10272,7 +10272,7 @@
       <c r="G159" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I159" s="2" t="s">
+      <c r="H159" s="2" t="s">
         <v>461</v>
       </c>
     </row>
@@ -10298,7 +10298,7 @@
       <c r="G160" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I160" s="2" t="s">
+      <c r="H160" s="2" t="s">
         <v>464</v>
       </c>
     </row>
@@ -10324,7 +10324,7 @@
       <c r="G161" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I161" s="2" t="s">
+      <c r="H161" s="2" t="s">
         <v>467</v>
       </c>
     </row>
@@ -10350,7 +10350,7 @@
       <c r="G162" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I162" s="2" t="s">
+      <c r="H162" s="2" t="s">
         <v>470</v>
       </c>
     </row>
@@ -10376,7 +10376,7 @@
       <c r="G163" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I163" s="2" t="s">
+      <c r="H163" s="2" t="s">
         <v>473</v>
       </c>
     </row>
@@ -10402,7 +10402,7 @@
       <c r="G164" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I164" s="2" t="s">
+      <c r="H164" s="2" t="s">
         <v>476</v>
       </c>
     </row>
@@ -10428,7 +10428,7 @@
       <c r="G165" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I165" s="2" t="s">
+      <c r="H165" s="2" t="s">
         <v>478</v>
       </c>
     </row>
@@ -10454,7 +10454,7 @@
       <c r="G166" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I166" s="2" t="s">
+      <c r="H166" s="2" t="s">
         <v>481</v>
       </c>
     </row>
@@ -10480,7 +10480,7 @@
       <c r="G167" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I167" s="2" t="s">
+      <c r="H167" s="2" t="s">
         <v>484</v>
       </c>
     </row>
@@ -10506,7 +10506,7 @@
       <c r="G168" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I168" s="2" t="s">
+      <c r="H168" s="2" t="s">
         <v>487</v>
       </c>
     </row>
@@ -10532,7 +10532,7 @@
       <c r="G169" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I169" s="2" t="s">
+      <c r="H169" s="2" t="s">
         <v>490</v>
       </c>
     </row>
@@ -10558,7 +10558,7 @@
       <c r="G170" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I170" s="2" t="s">
+      <c r="H170" s="2" t="s">
         <v>493</v>
       </c>
     </row>
@@ -10584,7 +10584,7 @@
       <c r="G171" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I171" s="2" t="s">
+      <c r="H171" s="2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -10610,7 +10610,7 @@
       <c r="G172" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I172" s="2" t="s">
+      <c r="H172" s="2" t="s">
         <v>498</v>
       </c>
     </row>
@@ -10636,7 +10636,7 @@
       <c r="G173" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I173" s="2" t="s">
+      <c r="H173" s="2" t="s">
         <v>501</v>
       </c>
     </row>
@@ -10662,7 +10662,7 @@
       <c r="G174" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I174" s="2" t="s">
+      <c r="H174" s="2" t="s">
         <v>503</v>
       </c>
     </row>
@@ -10688,7 +10688,7 @@
       <c r="G175" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I175" s="2" t="s">
+      <c r="H175" s="2" t="s">
         <v>506</v>
       </c>
     </row>
@@ -10714,7 +10714,7 @@
       <c r="G176" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I176" s="2" t="s">
+      <c r="H176" s="2" t="s">
         <v>509</v>
       </c>
     </row>
@@ -10740,7 +10740,7 @@
       <c r="G177" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I177" s="2" t="s">
+      <c r="H177" s="2" t="s">
         <v>512</v>
       </c>
     </row>
@@ -10766,7 +10766,7 @@
       <c r="G178" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I178" s="2" t="s">
+      <c r="H178" s="2" t="s">
         <v>515</v>
       </c>
     </row>
@@ -10792,7 +10792,7 @@
       <c r="G179" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I179" s="2" t="s">
+      <c r="H179" s="2" t="s">
         <v>518</v>
       </c>
     </row>
@@ -10818,7 +10818,7 @@
       <c r="G180" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I180" s="2" t="s">
+      <c r="H180" s="2" t="s">
         <v>521</v>
       </c>
     </row>
@@ -10844,7 +10844,7 @@
       <c r="G181" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I181" s="2" t="s">
+      <c r="H181" s="2" t="s">
         <v>524</v>
       </c>
     </row>
@@ -10870,7 +10870,7 @@
       <c r="G182" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I182" s="2" t="s">
+      <c r="H182" s="2" t="s">
         <v>527</v>
       </c>
     </row>
@@ -10896,7 +10896,7 @@
       <c r="G183" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I183" s="2" t="s">
+      <c r="H183" s="2" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10922,7 +10922,7 @@
       <c r="G184" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I184" s="2" t="s">
+      <c r="H184" s="2" t="s">
         <v>532</v>
       </c>
     </row>
@@ -10948,7 +10948,7 @@
       <c r="G185" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I185" s="2" t="s">
+      <c r="H185" s="2" t="s">
         <v>535</v>
       </c>
     </row>
@@ -10974,7 +10974,7 @@
       <c r="G186" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I186" s="2" t="s">
+      <c r="H186" s="2" t="s">
         <v>538</v>
       </c>
     </row>
@@ -11000,7 +11000,7 @@
       <c r="G187" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I187" s="2" t="s">
+      <c r="H187" s="2" t="s">
         <v>541</v>
       </c>
     </row>
@@ -11026,7 +11026,7 @@
       <c r="G188" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I188" s="2" t="s">
+      <c r="H188" s="2" t="s">
         <v>544</v>
       </c>
     </row>
@@ -11052,7 +11052,7 @@
       <c r="G189" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I189" s="2" t="s">
+      <c r="H189" s="2" t="s">
         <v>547</v>
       </c>
     </row>
@@ -11078,7 +11078,7 @@
       <c r="G190" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I190" s="2" t="s">
+      <c r="H190" s="2" t="s">
         <v>550</v>
       </c>
     </row>
@@ -11104,7 +11104,7 @@
       <c r="G191" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I191" s="2" t="s">
+      <c r="H191" s="2" t="s">
         <v>552</v>
       </c>
     </row>
@@ -11130,7 +11130,7 @@
       <c r="G192" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I192" s="2" t="s">
+      <c r="H192" s="2" t="s">
         <v>555</v>
       </c>
     </row>
@@ -11156,7 +11156,7 @@
       <c r="G193" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I193" s="2" t="s">
+      <c r="H193" s="2" t="s">
         <v>558</v>
       </c>
     </row>
@@ -11182,7 +11182,7 @@
       <c r="G194" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I194" s="2" t="s">
+      <c r="H194" s="2" t="s">
         <v>561</v>
       </c>
     </row>
@@ -11208,7 +11208,7 @@
       <c r="G195" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I195" s="2" t="s">
+      <c r="H195" s="2" t="s">
         <v>564</v>
       </c>
     </row>
@@ -11257,7 +11257,7 @@
       <c r="G197" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I197" s="2" t="s">
+      <c r="H197" s="2" t="s">
         <v>568</v>
       </c>
     </row>
@@ -11283,7 +11283,7 @@
       <c r="G198" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I198" s="2" t="s">
+      <c r="H198" s="2" t="s">
         <v>571</v>
       </c>
     </row>
@@ -11309,7 +11309,7 @@
       <c r="G199" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I199" s="2" t="s">
+      <c r="H199" s="2" t="s">
         <v>573</v>
       </c>
     </row>
@@ -11335,7 +11335,7 @@
       <c r="G200" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I200" s="2" t="s">
+      <c r="H200" s="2" t="s">
         <v>576</v>
       </c>
     </row>
@@ -11361,7 +11361,7 @@
       <c r="G201" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I201" s="2" t="s">
+      <c r="H201" s="2" t="s">
         <v>579</v>
       </c>
     </row>
@@ -11387,7 +11387,7 @@
       <c r="G202" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I202" s="2" t="s">
+      <c r="H202" s="2" t="s">
         <v>581</v>
       </c>
     </row>
@@ -11413,7 +11413,7 @@
       <c r="G203" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I203" s="2" t="s">
+      <c r="H203" s="2" t="s">
         <v>584</v>
       </c>
     </row>
@@ -11439,7 +11439,7 @@
       <c r="G204" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I204" s="2" t="s">
+      <c r="H204" s="2" t="s">
         <v>587</v>
       </c>
     </row>
@@ -11465,7 +11465,7 @@
       <c r="G205" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I205" s="2" t="s">
+      <c r="H205" s="2" t="s">
         <v>590</v>
       </c>
     </row>
@@ -11491,7 +11491,7 @@
       <c r="G206" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I206" s="2" t="s">
+      <c r="H206" s="2" t="s">
         <v>593</v>
       </c>
     </row>
@@ -11517,7 +11517,7 @@
       <c r="G207" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I207" s="2" t="s">
+      <c r="H207" s="2" t="s">
         <v>596</v>
       </c>
     </row>
@@ -11543,7 +11543,7 @@
       <c r="G208" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I208" s="2" t="s">
+      <c r="H208" s="2" t="s">
         <v>599</v>
       </c>
     </row>
@@ -11569,7 +11569,7 @@
       <c r="G209" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I209" s="2" t="s">
+      <c r="H209" s="2" t="s">
         <v>602</v>
       </c>
     </row>
@@ -11595,7 +11595,7 @@
       <c r="G210" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I210" s="2" t="s">
+      <c r="H210" s="2" t="s">
         <v>605</v>
       </c>
     </row>
@@ -11621,7 +11621,7 @@
       <c r="G211" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I211" s="2" t="s">
+      <c r="H211" s="2" t="s">
         <v>608</v>
       </c>
     </row>
@@ -11647,7 +11647,7 @@
       <c r="G212" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I212" s="2" t="s">
+      <c r="H212" s="2" t="s">
         <v>611</v>
       </c>
     </row>
@@ -11673,7 +11673,7 @@
       <c r="G213" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I213" s="2" t="s">
+      <c r="H213" s="2" t="s">
         <v>614</v>
       </c>
     </row>
@@ -11699,7 +11699,7 @@
       <c r="G214" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I214" s="2" t="s">
+      <c r="H214" s="2" t="s">
         <v>617</v>
       </c>
     </row>
@@ -11725,7 +11725,7 @@
       <c r="G215" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I215" s="2" t="s">
+      <c r="H215" s="2" t="s">
         <v>620</v>
       </c>
     </row>
@@ -11751,7 +11751,7 @@
       <c r="G216" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I216" s="2" t="s">
+      <c r="H216" s="2" t="s">
         <v>623</v>
       </c>
     </row>
@@ -11777,7 +11777,7 @@
       <c r="G217" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I217" s="2" t="s">
+      <c r="H217" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -11803,7 +11803,7 @@
       <c r="G218" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I218" s="2" t="s">
+      <c r="H218" s="2" t="s">
         <v>629</v>
       </c>
     </row>
@@ -11829,7 +11829,7 @@
       <c r="G219" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I219" s="2" t="s">
+      <c r="H219" s="2" t="s">
         <v>632</v>
       </c>
     </row>
@@ -11855,7 +11855,7 @@
       <c r="G220" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I220" s="2" t="s">
+      <c r="H220" s="2" t="s">
         <v>635</v>
       </c>
     </row>
@@ -11881,7 +11881,7 @@
       <c r="G221" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I221" s="2" t="s">
+      <c r="H221" s="2" t="s">
         <v>638</v>
       </c>
     </row>
@@ -11907,7 +11907,7 @@
       <c r="G222" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I222" s="2" t="s">
+      <c r="H222" s="2" t="s">
         <v>641</v>
       </c>
     </row>
@@ -11956,7 +11956,7 @@
       <c r="G224" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I224" s="2" t="s">
+      <c r="H224" s="2" t="s">
         <v>646</v>
       </c>
     </row>
@@ -11982,7 +11982,7 @@
       <c r="G225" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I225" s="2" t="s">
+      <c r="H225" s="2" t="s">
         <v>648</v>
       </c>
     </row>
@@ -12008,7 +12008,7 @@
       <c r="G226" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I226" s="2" t="s">
+      <c r="H226" s="2" t="s">
         <v>651</v>
       </c>
     </row>
@@ -12034,7 +12034,7 @@
       <c r="G227" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I227" s="2" t="s">
+      <c r="H227" s="2" t="s">
         <v>654</v>
       </c>
     </row>
@@ -12060,7 +12060,7 @@
       <c r="G228" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I228" s="2" t="s">
+      <c r="H228" s="2" t="s">
         <v>657</v>
       </c>
     </row>
@@ -12086,7 +12086,7 @@
       <c r="G229" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I229" s="2" t="s">
+      <c r="H229" s="2" t="s">
         <v>660</v>
       </c>
     </row>
@@ -12112,7 +12112,7 @@
       <c r="G230" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I230" s="2" t="s">
+      <c r="H230" s="2" t="s">
         <v>663</v>
       </c>
     </row>
@@ -12138,7 +12138,7 @@
       <c r="G231" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I231" s="2" t="s">
+      <c r="H231" s="2" t="s">
         <v>666</v>
       </c>
     </row>
@@ -12164,7 +12164,7 @@
       <c r="G232" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I232" s="2" t="s">
+      <c r="H232" s="2" t="s">
         <v>668</v>
       </c>
     </row>
@@ -12190,7 +12190,7 @@
       <c r="G233" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I233" s="2" t="s">
+      <c r="H233" s="2" t="s">
         <v>671</v>
       </c>
     </row>
@@ -12216,7 +12216,7 @@
       <c r="G234" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I234" s="2" t="s">
+      <c r="H234" s="2" t="s">
         <v>674</v>
       </c>
     </row>
@@ -12242,7 +12242,7 @@
       <c r="G235" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I235" s="2" t="s">
+      <c r="H235" s="2" t="s">
         <v>677</v>
       </c>
     </row>
@@ -12268,7 +12268,7 @@
       <c r="G236" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I236" s="2" t="s">
+      <c r="H236" s="2" t="s">
         <v>680</v>
       </c>
     </row>
@@ -12294,7 +12294,7 @@
       <c r="G237" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I237" s="2" t="s">
+      <c r="H237" s="2" t="s">
         <v>683</v>
       </c>
     </row>
@@ -12320,7 +12320,7 @@
       <c r="G238" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I238" s="2" t="s">
+      <c r="H238" s="2" t="s">
         <v>686</v>
       </c>
     </row>
@@ -12346,7 +12346,7 @@
       <c r="G239" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I239" s="2" t="s">
+      <c r="H239" s="2" t="s">
         <v>689</v>
       </c>
     </row>
@@ -12372,7 +12372,7 @@
       <c r="G240" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I240" s="2" t="s">
+      <c r="H240" s="2" t="s">
         <v>692</v>
       </c>
     </row>
@@ -12398,7 +12398,7 @@
       <c r="G241" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I241" s="2" t="s">
+      <c r="H241" s="2" t="s">
         <v>695</v>
       </c>
     </row>
@@ -12424,7 +12424,7 @@
       <c r="G242" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I242" s="2" t="s">
+      <c r="H242" s="2" t="s">
         <v>698</v>
       </c>
     </row>
@@ -12450,7 +12450,7 @@
       <c r="G243" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I243" s="2" t="s">
+      <c r="H243" s="2" t="s">
         <v>701</v>
       </c>
     </row>
@@ -12476,7 +12476,7 @@
       <c r="G244" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I244" s="2" t="s">
+      <c r="H244" s="2" t="s">
         <v>704</v>
       </c>
     </row>
@@ -12525,7 +12525,7 @@
       <c r="G246" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I246" s="2" t="s">
+      <c r="H246" s="2" t="s">
         <v>709</v>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
       <c r="G247" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I247" s="2" t="s">
+      <c r="H247" s="2" t="s">
         <v>712</v>
       </c>
     </row>
@@ -12577,7 +12577,7 @@
       <c r="G248" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I248" s="2" t="s">
+      <c r="H248" s="2" t="s">
         <v>715</v>
       </c>
     </row>
@@ -12603,7 +12603,7 @@
       <c r="G249" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I249" s="2" t="s">
+      <c r="H249" s="2" t="s">
         <v>718</v>
       </c>
     </row>
@@ -12629,7 +12629,7 @@
       <c r="G250" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I250" s="2" t="s">
+      <c r="H250" s="2" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12678,7 +12678,7 @@
       <c r="G252" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I252" s="2" t="s">
+      <c r="H252" s="2" t="s">
         <v>726</v>
       </c>
     </row>
@@ -12704,7 +12704,7 @@
       <c r="G253" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I253" s="2" t="s">
+      <c r="H253" s="2" t="s">
         <v>729</v>
       </c>
     </row>
@@ -12730,7 +12730,7 @@
       <c r="G254" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I254" s="2" t="s">
+      <c r="H254" s="2" t="s">
         <v>732</v>
       </c>
     </row>
@@ -12756,7 +12756,7 @@
       <c r="G255" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I255" s="2" t="s">
+      <c r="H255" s="2" t="s">
         <v>735</v>
       </c>
     </row>
@@ -12782,7 +12782,7 @@
       <c r="G256" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I256" s="2" t="s">
+      <c r="H256" s="2" t="s">
         <v>738</v>
       </c>
     </row>
@@ -12808,7 +12808,7 @@
       <c r="G257" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I257" s="2" t="s">
+      <c r="H257" s="2" t="s">
         <v>741</v>
       </c>
     </row>
@@ -12834,7 +12834,7 @@
       <c r="G258" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I258" s="2" t="s">
+      <c r="H258" s="2" t="s">
         <v>744</v>
       </c>
     </row>
@@ -12860,7 +12860,7 @@
       <c r="G259" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I259" s="2" t="s">
+      <c r="H259" s="2" t="s">
         <v>747</v>
       </c>
     </row>
@@ -12886,7 +12886,7 @@
       <c r="G260" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I260" s="2" t="s">
+      <c r="H260" s="2" t="s">
         <v>750</v>
       </c>
     </row>
@@ -12912,7 +12912,7 @@
       <c r="G261" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I261" s="2" t="s">
+      <c r="H261" s="2" t="s">
         <v>753</v>
       </c>
     </row>
@@ -12938,7 +12938,7 @@
       <c r="G262" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I262" s="2" t="s">
+      <c r="H262" s="2" t="s">
         <v>756</v>
       </c>
     </row>
@@ -12964,7 +12964,7 @@
       <c r="G263" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I263" s="2" t="s">
+      <c r="H263" s="2" t="s">
         <v>759</v>
       </c>
     </row>
@@ -12990,7 +12990,7 @@
       <c r="G264" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I264" s="2" t="s">
+      <c r="H264" s="2" t="s">
         <v>762</v>
       </c>
     </row>
@@ -13016,7 +13016,7 @@
       <c r="G265" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I265" s="2" t="s">
+      <c r="H265" s="2" t="s">
         <v>765</v>
       </c>
     </row>
@@ -13042,7 +13042,7 @@
       <c r="G266" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I266" s="2" t="s">
+      <c r="H266" s="2" t="s">
         <v>768</v>
       </c>
     </row>
@@ -13068,7 +13068,7 @@
       <c r="G267" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I267" s="2" t="s">
+      <c r="H267" s="2" t="s">
         <v>771</v>
       </c>
     </row>
@@ -13094,7 +13094,7 @@
       <c r="G268" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I268" s="2" t="s">
+      <c r="H268" s="2" t="s">
         <v>774</v>
       </c>
     </row>
@@ -13120,7 +13120,7 @@
       <c r="G269" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I269" s="2" t="s">
+      <c r="H269" s="2" t="s">
         <v>776</v>
       </c>
     </row>
@@ -13146,7 +13146,7 @@
       <c r="G270" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I270" s="2" t="s">
+      <c r="H270" s="2" t="s">
         <v>779</v>
       </c>
     </row>
@@ -13172,7 +13172,7 @@
       <c r="G271" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I271" s="2" t="s">
+      <c r="H271" s="2" t="s">
         <v>782</v>
       </c>
     </row>
@@ -13198,7 +13198,7 @@
       <c r="G272" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I272" s="2" t="s">
+      <c r="H272" s="2" t="s">
         <v>785</v>
       </c>
     </row>
@@ -13224,7 +13224,7 @@
       <c r="G273" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I273" s="2" t="s">
+      <c r="H273" s="2" t="s">
         <v>788</v>
       </c>
     </row>
@@ -13250,7 +13250,7 @@
       <c r="G274" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I274" s="2" t="s">
+      <c r="H274" s="2" t="s">
         <v>791</v>
       </c>
     </row>
@@ -13276,7 +13276,7 @@
       <c r="G275" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I275" s="2" t="s">
+      <c r="H275" s="2" t="s">
         <v>793</v>
       </c>
     </row>
@@ -13302,7 +13302,7 @@
       <c r="G276" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I276" s="2" t="s">
+      <c r="H276" s="2" t="s">
         <v>796</v>
       </c>
     </row>
@@ -13328,7 +13328,7 @@
       <c r="G277" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I277" s="2" t="s">
+      <c r="H277" s="2" t="s">
         <v>799</v>
       </c>
     </row>
@@ -13377,7 +13377,7 @@
       <c r="G279" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I279" s="2" t="s">
+      <c r="H279" s="2" t="s">
         <v>804</v>
       </c>
     </row>
@@ -13403,7 +13403,7 @@
       <c r="G280" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I280" s="2" t="s">
+      <c r="H280" s="2" t="s">
         <v>807</v>
       </c>
     </row>
@@ -13429,7 +13429,7 @@
       <c r="G281" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I281" s="2" t="s">
+      <c r="H281" s="2" t="s">
         <v>809</v>
       </c>
     </row>
@@ -13524,7 +13524,7 @@
       <c r="G285" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I285" s="2" t="s">
+      <c r="H285" s="2" t="s">
         <v>818</v>
       </c>
     </row>
@@ -13550,7 +13550,7 @@
       <c r="G286" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I286" s="2" t="s">
+      <c r="H286" s="2" t="s">
         <v>821</v>
       </c>
     </row>
@@ -13576,7 +13576,7 @@
       <c r="G287" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I287" s="2" t="s">
+      <c r="H287" s="2" t="s">
         <v>824</v>
       </c>
     </row>
@@ -13625,7 +13625,7 @@
       <c r="G289" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I289" s="2" t="s">
+      <c r="H289" s="2" t="s">
         <v>829</v>
       </c>
     </row>
@@ -13651,7 +13651,7 @@
       <c r="G290" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I290" s="2" t="s">
+      <c r="H290" s="2" t="s">
         <v>832</v>
       </c>
     </row>
@@ -13677,7 +13677,7 @@
       <c r="G291" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I291" s="2" t="s">
+      <c r="H291" s="2" t="s">
         <v>835</v>
       </c>
     </row>
@@ -13703,7 +13703,7 @@
       <c r="G292" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I292" s="2" t="s">
+      <c r="H292" s="2" t="s">
         <v>838</v>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       <c r="G293" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I293" s="2" t="s">
+      <c r="H293" s="2" t="s">
         <v>841</v>
       </c>
     </row>
@@ -13755,7 +13755,7 @@
       <c r="G294" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I294" s="2" t="s">
+      <c r="H294" s="2" t="s">
         <v>844</v>
       </c>
     </row>
@@ -13781,7 +13781,7 @@
       <c r="G295" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I295" s="2" t="s">
+      <c r="H295" s="2" t="s">
         <v>847</v>
       </c>
     </row>
@@ -13807,7 +13807,7 @@
       <c r="G296" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I296" s="2" t="s">
+      <c r="H296" s="2" t="s">
         <v>850</v>
       </c>
     </row>
@@ -13833,7 +13833,7 @@
       <c r="G297" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I297" s="2" t="s">
+      <c r="H297" s="2" t="s">
         <v>853</v>
       </c>
     </row>
@@ -13859,7 +13859,7 @@
       <c r="G298" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I298" s="2" t="s">
+      <c r="H298" s="2" t="s">
         <v>856</v>
       </c>
     </row>
@@ -13885,7 +13885,7 @@
       <c r="G299" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I299" s="2" t="s">
+      <c r="H299" s="2" t="s">
         <v>859</v>
       </c>
     </row>
@@ -13911,7 +13911,7 @@
       <c r="G300" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I300" s="2" t="s">
+      <c r="H300" s="2" t="s">
         <v>862</v>
       </c>
     </row>
@@ -13960,7 +13960,7 @@
       <c r="G302" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I302" s="2" t="s">
+      <c r="H302" s="2" t="s">
         <v>867</v>
       </c>
     </row>
@@ -14032,7 +14032,7 @@
       <c r="G305" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I305" s="2" t="s">
+      <c r="H305" s="2" t="s">
         <v>874</v>
       </c>
     </row>
@@ -14058,7 +14058,7 @@
       <c r="G306" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I306" s="2" t="s">
+      <c r="H306" s="2" t="s">
         <v>877</v>
       </c>
     </row>
@@ -14084,7 +14084,7 @@
       <c r="G307" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I307" s="2" t="s">
+      <c r="H307" s="2" t="s">
         <v>880</v>
       </c>
     </row>
@@ -14110,7 +14110,7 @@
       <c r="G308" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I308" s="2" t="s">
+      <c r="H308" s="2" t="s">
         <v>883</v>
       </c>
     </row>
@@ -14136,7 +14136,7 @@
       <c r="G309" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I309" s="2" t="s">
+      <c r="H309" s="2" t="s">
         <v>886</v>
       </c>
     </row>
@@ -14185,7 +14185,7 @@
       <c r="G311" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I311" s="2" t="s">
+      <c r="H311" s="2" t="s">
         <v>891</v>
       </c>
     </row>
@@ -14211,7 +14211,7 @@
       <c r="G312" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I312" s="2" t="s">
+      <c r="H312" s="2" t="s">
         <v>894</v>
       </c>
     </row>
@@ -14237,7 +14237,7 @@
       <c r="G313" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I313" s="2" t="s">
+      <c r="H313" s="2" t="s">
         <v>897</v>
       </c>
     </row>
@@ -14263,7 +14263,7 @@
       <c r="G314" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I314" s="2" t="s">
+      <c r="H314" s="2" t="s">
         <v>900</v>
       </c>
     </row>
@@ -14289,7 +14289,7 @@
       <c r="G315" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I315" s="2" t="s">
+      <c r="H315" s="2" t="s">
         <v>903</v>
       </c>
     </row>
@@ -14315,7 +14315,7 @@
       <c r="G316" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I316" s="2" t="s">
+      <c r="H316" s="2" t="s">
         <v>906</v>
       </c>
     </row>
@@ -14387,7 +14387,7 @@
       <c r="G319" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I319" s="2" t="s">
+      <c r="H319" s="2" t="s">
         <v>913</v>
       </c>
     </row>
@@ -14413,7 +14413,7 @@
       <c r="G320" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I320" s="2" t="s">
+      <c r="H320" s="2" t="s">
         <v>916</v>
       </c>
     </row>
@@ -14439,7 +14439,7 @@
       <c r="G321" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I321" s="2" t="s">
+      <c r="H321" s="2" t="s">
         <v>919</v>
       </c>
     </row>
@@ -14465,7 +14465,7 @@
       <c r="G322" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I322" s="2" t="s">
+      <c r="H322" s="2" t="s">
         <v>921</v>
       </c>
     </row>
@@ -14491,7 +14491,7 @@
       <c r="G323" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I323" s="2" t="s">
+      <c r="H323" s="2" t="s">
         <v>924</v>
       </c>
     </row>
@@ -14517,7 +14517,7 @@
       <c r="G324" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I324" s="2" t="s">
+      <c r="H324" s="2" t="s">
         <v>927</v>
       </c>
     </row>
@@ -14543,7 +14543,7 @@
       <c r="G325" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I325" s="2" t="s">
+      <c r="H325" s="2" t="s">
         <v>930</v>
       </c>
     </row>
@@ -14569,7 +14569,7 @@
       <c r="G326" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I326" s="2" t="s">
+      <c r="H326" s="2" t="s">
         <v>933</v>
       </c>
     </row>
@@ -14595,7 +14595,7 @@
       <c r="G327" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I327" s="2" t="s">
+      <c r="H327" s="2" t="s">
         <v>936</v>
       </c>
     </row>
@@ -14621,7 +14621,7 @@
       <c r="G328" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I328" s="2" t="s">
+      <c r="H328" s="2" t="s">
         <v>939</v>
       </c>
     </row>
@@ -14647,7 +14647,7 @@
       <c r="G329" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I329" s="2" t="s">
+      <c r="H329" s="2" t="s">
         <v>942</v>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       <c r="G330" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I330" s="2" t="s">
+      <c r="H330" s="2" t="s">
         <v>945</v>
       </c>
     </row>
@@ -14699,7 +14699,7 @@
       <c r="G331" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I331" s="2" t="s">
+      <c r="H331" s="2" t="s">
         <v>948</v>
       </c>
     </row>
@@ -14725,7 +14725,7 @@
       <c r="G332" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I332" s="2" t="s">
+      <c r="H332" s="2" t="s">
         <v>951</v>
       </c>
     </row>
@@ -14751,7 +14751,7 @@
       <c r="G333" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I333" s="2" t="s">
+      <c r="H333" s="2" t="s">
         <v>954</v>
       </c>
     </row>
@@ -14777,7 +14777,7 @@
       <c r="G334" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I334" s="2" t="s">
+      <c r="H334" s="2" t="s">
         <v>957</v>
       </c>
     </row>
@@ -14803,7 +14803,7 @@
       <c r="G335" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I335" s="2" t="s">
+      <c r="H335" s="2" t="s">
         <v>959</v>
       </c>
     </row>
@@ -14829,7 +14829,7 @@
       <c r="G336" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I336" s="2" t="s">
+      <c r="H336" s="2" t="s">
         <v>962</v>
       </c>
     </row>
@@ -14855,7 +14855,7 @@
       <c r="G337" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I337" s="2" t="s">
+      <c r="H337" s="2" t="s">
         <v>965</v>
       </c>
     </row>
@@ -14881,7 +14881,7 @@
       <c r="G338" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I338" s="2" t="s">
+      <c r="H338" s="2" t="s">
         <v>968</v>
       </c>
     </row>
@@ -14907,7 +14907,7 @@
       <c r="G339" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I339" s="2" t="s">
+      <c r="H339" s="2" t="s">
         <v>971</v>
       </c>
     </row>
@@ -14933,7 +14933,7 @@
       <c r="G340" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I340" s="2" t="s">
+      <c r="H340" s="2" t="s">
         <v>973</v>
       </c>
     </row>
@@ -14959,7 +14959,7 @@
       <c r="G341" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I341" s="2" t="s">
+      <c r="H341" s="2" t="s">
         <v>976</v>
       </c>
     </row>
@@ -14985,7 +14985,7 @@
       <c r="G342" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I342" s="2" t="s">
+      <c r="H342" s="2" t="s">
         <v>979</v>
       </c>
     </row>
@@ -15011,7 +15011,7 @@
       <c r="G343" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I343" s="2" t="s">
+      <c r="H343" s="2" t="s">
         <v>982</v>
       </c>
     </row>
@@ -15037,7 +15037,7 @@
       <c r="G344" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I344" s="2" t="s">
+      <c r="H344" s="2" t="s">
         <v>985</v>
       </c>
     </row>
@@ -15063,7 +15063,7 @@
       <c r="G345" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I345" s="2" t="s">
+      <c r="H345" s="2" t="s">
         <v>988</v>
       </c>
     </row>
@@ -15089,7 +15089,7 @@
       <c r="G346" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I346" s="2" t="s">
+      <c r="H346" s="2" t="s">
         <v>991</v>
       </c>
     </row>
@@ -15115,7 +15115,7 @@
       <c r="G347" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I347" s="2" t="s">
+      <c r="H347" s="2" t="s">
         <v>994</v>
       </c>
     </row>
@@ -15141,7 +15141,7 @@
       <c r="G348" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I348" s="2" t="s">
+      <c r="H348" s="2" t="s">
         <v>997</v>
       </c>
     </row>
@@ -15167,7 +15167,7 @@
       <c r="G349" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I349" s="2" t="s">
+      <c r="H349" s="2" t="s">
         <v>999</v>
       </c>
     </row>
@@ -15193,7 +15193,7 @@
       <c r="G350" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I350" s="2" t="s">
+      <c r="H350" s="2" t="s">
         <v>1002</v>
       </c>
     </row>
@@ -15219,7 +15219,7 @@
       <c r="G351" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I351" s="2" t="s">
+      <c r="H351" s="2" t="s">
         <v>1005</v>
       </c>
     </row>
@@ -15245,7 +15245,7 @@
       <c r="G352" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I352" s="2" t="s">
+      <c r="H352" s="2" t="s">
         <v>1008</v>
       </c>
     </row>
@@ -15271,7 +15271,7 @@
       <c r="G353" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I353" s="2" t="s">
+      <c r="H353" s="2" t="s">
         <v>1011</v>
       </c>
     </row>
@@ -15297,7 +15297,7 @@
       <c r="G354" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I354" s="2" t="s">
+      <c r="H354" s="2" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -15323,7 +15323,7 @@
       <c r="G355" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I355" s="2" t="s">
+      <c r="H355" s="2" t="s">
         <v>1017</v>
       </c>
     </row>
@@ -15372,7 +15372,7 @@
       <c r="G357" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I357" s="2" t="s">
+      <c r="H357" s="2" t="s">
         <v>1022</v>
       </c>
     </row>
@@ -15398,7 +15398,7 @@
       <c r="G358" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I358" s="2" t="s">
+      <c r="H358" s="2" t="s">
         <v>1025</v>
       </c>
     </row>
@@ -15424,7 +15424,7 @@
       <c r="G359" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I359" s="2" t="s">
+      <c r="H359" s="2" t="s">
         <v>1028</v>
       </c>
     </row>
@@ -15450,7 +15450,7 @@
       <c r="G360" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I360" s="2" t="s">
+      <c r="H360" s="2" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -15476,7 +15476,7 @@
       <c r="G361" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I361" s="2" t="s">
+      <c r="H361" s="2" t="s">
         <v>1034</v>
       </c>
     </row>
@@ -15502,7 +15502,7 @@
       <c r="G362" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I362" s="2" t="s">
+      <c r="H362" s="2" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -15528,7 +15528,7 @@
       <c r="G363" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I363" s="2" t="s">
+      <c r="H363" s="2" t="s">
         <v>1039</v>
       </c>
     </row>
@@ -15554,7 +15554,7 @@
       <c r="G364" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I364" s="2" t="s">
+      <c r="H364" s="2" t="s">
         <v>1042</v>
       </c>
     </row>
@@ -15580,7 +15580,7 @@
       <c r="G365" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I365" s="2" t="s">
+      <c r="H365" s="2" t="s">
         <v>1045</v>
       </c>
     </row>
@@ -15629,7 +15629,7 @@
       <c r="G367" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I367" s="2" t="s">
+      <c r="H367" s="2" t="s">
         <v>1050</v>
       </c>
     </row>
@@ -15701,7 +15701,7 @@
       <c r="G370" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I370" s="2" t="s">
+      <c r="H370" s="2" t="s">
         <v>1057</v>
       </c>
     </row>
@@ -15727,7 +15727,7 @@
       <c r="G371" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I371" s="2" t="s">
+      <c r="H371" s="2" t="s">
         <v>1060</v>
       </c>
     </row>
@@ -15753,7 +15753,7 @@
       <c r="G372" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I372" s="2" t="s">
+      <c r="H372" s="2" t="s">
         <v>1063</v>
       </c>
     </row>
@@ -15779,7 +15779,7 @@
       <c r="G373" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I373" s="2" t="s">
+      <c r="H373" s="2" t="s">
         <v>1066</v>
       </c>
     </row>
@@ -15805,7 +15805,7 @@
       <c r="G374" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I374" s="2" t="s">
+      <c r="H374" s="2" t="s">
         <v>1069</v>
       </c>
     </row>
@@ -15831,7 +15831,7 @@
       <c r="G375" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I375" s="2" t="s">
+      <c r="H375" s="2" t="s">
         <v>1072</v>
       </c>
     </row>
@@ -15857,7 +15857,7 @@
       <c r="G376" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I376" s="2" t="s">
+      <c r="H376" s="2" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -15883,7 +15883,7 @@
       <c r="G377" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I377" s="2" t="s">
+      <c r="H377" s="2" t="s">
         <v>1078</v>
       </c>
     </row>
@@ -15909,7 +15909,7 @@
       <c r="G378" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I378" s="2" t="s">
+      <c r="H378" s="2" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -15935,7 +15935,7 @@
       <c r="G379" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I379" s="2" t="s">
+      <c r="H379" s="2" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -15961,7 +15961,7 @@
       <c r="G380" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I380" s="2" t="s">
+      <c r="H380" s="2" t="s">
         <v>1086</v>
       </c>
     </row>
@@ -15987,7 +15987,7 @@
       <c r="G381" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I381" s="2" t="s">
+      <c r="H381" s="2" t="s">
         <v>1089</v>
       </c>
     </row>
@@ -16013,7 +16013,7 @@
       <c r="G382" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I382" s="2" t="s">
+      <c r="H382" s="2" t="s">
         <v>1092</v>
       </c>
     </row>
@@ -16039,7 +16039,7 @@
       <c r="G383" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I383" s="2" t="s">
+      <c r="H383" s="2" t="s">
         <v>1095</v>
       </c>
     </row>
@@ -16065,7 +16065,7 @@
       <c r="G384" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I384" s="2" t="s">
+      <c r="H384" s="2" t="s">
         <v>1098</v>
       </c>
     </row>
@@ -16091,7 +16091,7 @@
       <c r="G385" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I385" s="2" t="s">
+      <c r="H385" s="2" t="s">
         <v>1101</v>
       </c>
     </row>
@@ -16117,7 +16117,7 @@
       <c r="G386" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I386" s="2" t="s">
+      <c r="H386" s="2" t="s">
         <v>1104</v>
       </c>
     </row>
@@ -16143,7 +16143,7 @@
       <c r="G387" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I387" s="2" t="s">
+      <c r="H387" s="2" t="s">
         <v>1107</v>
       </c>
     </row>
@@ -16169,7 +16169,7 @@
       <c r="G388" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I388" s="2" t="s">
+      <c r="H388" s="2" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -16195,7 +16195,7 @@
       <c r="G389" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I389" s="2" t="s">
+      <c r="H389" s="2" t="s">
         <v>1112</v>
       </c>
     </row>
@@ -16221,7 +16221,7 @@
       <c r="G390" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I390" s="2" t="s">
+      <c r="H390" s="2" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -16293,7 +16293,7 @@
       <c r="G393" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I393" s="2" t="s">
+      <c r="H393" s="2" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -16319,7 +16319,7 @@
       <c r="G394" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I394" s="2" t="s">
+      <c r="H394" s="2" t="s">
         <v>1125</v>
       </c>
     </row>
@@ -16345,7 +16345,7 @@
       <c r="G395" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I395" s="2" t="s">
+      <c r="H395" s="2" t="s">
         <v>1128</v>
       </c>
     </row>
@@ -16371,7 +16371,7 @@
       <c r="G396" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I396" s="2" t="s">
+      <c r="H396" s="2" t="s">
         <v>1131</v>
       </c>
     </row>
@@ -16397,7 +16397,7 @@
       <c r="G397" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I397" s="2" t="s">
+      <c r="H397" s="2" t="s">
         <v>1134</v>
       </c>
     </row>
@@ -16423,7 +16423,7 @@
       <c r="G398" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I398" s="2" t="s">
+      <c r="H398" s="2" t="s">
         <v>1137</v>
       </c>
     </row>
@@ -16449,7 +16449,7 @@
       <c r="G399" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I399" s="2" t="s">
+      <c r="H399" s="2" t="s">
         <v>1140</v>
       </c>
     </row>
@@ -16475,7 +16475,7 @@
       <c r="G400" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I400" s="2" t="s">
+      <c r="H400" s="2" t="s">
         <v>1143</v>
       </c>
     </row>
@@ -16501,7 +16501,7 @@
       <c r="G401" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I401" s="2" t="s">
+      <c r="H401" s="2" t="s">
         <v>1146</v>
       </c>
     </row>
@@ -16527,7 +16527,7 @@
       <c r="G402" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I402" s="2" t="s">
+      <c r="H402" s="2" t="s">
         <v>1149</v>
       </c>
     </row>
@@ -16553,7 +16553,7 @@
       <c r="G403" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I403" s="2" t="s">
+      <c r="H403" s="2" t="s">
         <v>1152</v>
       </c>
     </row>
@@ -16579,7 +16579,7 @@
       <c r="G404" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I404" s="2" t="s">
+      <c r="H404" s="2" t="s">
         <v>1155</v>
       </c>
     </row>
@@ -16605,7 +16605,7 @@
       <c r="G405" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I405" s="2" t="s">
+      <c r="H405" s="2" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -16631,7 +16631,7 @@
       <c r="G406" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I406" s="2" t="s">
+      <c r="H406" s="2" t="s">
         <v>1161</v>
       </c>
     </row>
@@ -16657,7 +16657,7 @@
       <c r="G407" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I407" s="2" t="s">
+      <c r="H407" s="2" t="s">
         <v>1164</v>
       </c>
     </row>
@@ -16706,7 +16706,7 @@
       <c r="G409" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I409" s="2" t="s">
+      <c r="H409" s="2" t="s">
         <v>1169</v>
       </c>
     </row>
@@ -16732,7 +16732,7 @@
       <c r="G410" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I410" s="2" t="s">
+      <c r="H410" s="2" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -16758,7 +16758,7 @@
       <c r="G411" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I411" s="2" t="s">
+      <c r="H411" s="2" t="s">
         <v>1175</v>
       </c>
     </row>
@@ -16784,7 +16784,7 @@
       <c r="G412" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I412" s="2" t="s">
+      <c r="H412" s="2" t="s">
         <v>1178</v>
       </c>
     </row>
@@ -16810,7 +16810,7 @@
       <c r="G413" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I413" s="2" t="s">
+      <c r="H413" s="2" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -16836,7 +16836,7 @@
       <c r="G414" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I414" s="2" t="s">
+      <c r="H414" s="2" t="s">
         <v>1184</v>
       </c>
     </row>
@@ -16862,7 +16862,7 @@
       <c r="G415" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I415" s="2" t="s">
+      <c r="H415" s="2" t="s">
         <v>1187</v>
       </c>
     </row>
@@ -16888,7 +16888,7 @@
       <c r="G416" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I416" s="2" t="s">
+      <c r="H416" s="2" t="s">
         <v>1190</v>
       </c>
     </row>
@@ -16914,7 +16914,7 @@
       <c r="G417" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I417" s="2" t="s">
+      <c r="H417" s="2" t="s">
         <v>1193</v>
       </c>
     </row>
@@ -16940,7 +16940,7 @@
       <c r="G418" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I418" s="2" t="s">
+      <c r="H418" s="2" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -16966,7 +16966,7 @@
       <c r="G419" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I419" s="2" t="s">
+      <c r="H419" s="2" t="s">
         <v>1198</v>
       </c>
     </row>
@@ -16992,7 +16992,7 @@
       <c r="G420" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I420" s="2" t="s">
+      <c r="H420" s="2" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -17018,7 +17018,7 @@
       <c r="G421" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I421" s="2" t="s">
+      <c r="H421" s="2" t="s">
         <v>1204</v>
       </c>
     </row>
@@ -17044,7 +17044,7 @@
       <c r="G422" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I422" s="2" t="s">
+      <c r="H422" s="2" t="s">
         <v>1207</v>
       </c>
     </row>
@@ -17070,7 +17070,7 @@
       <c r="G423" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I423" s="2" t="s">
+      <c r="H423" s="2" t="s">
         <v>1210</v>
       </c>
     </row>
@@ -17096,7 +17096,7 @@
       <c r="G424" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I424" s="2" t="s">
+      <c r="H424" s="2" t="s">
         <v>1213</v>
       </c>
     </row>
@@ -17122,7 +17122,7 @@
       <c r="G425" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I425" s="2" t="s">
+      <c r="H425" s="2" t="s">
         <v>1215</v>
       </c>
     </row>
@@ -17148,7 +17148,7 @@
       <c r="G426" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I426" s="2" t="s">
+      <c r="H426" s="2" t="s">
         <v>1218</v>
       </c>
     </row>
@@ -17174,7 +17174,7 @@
       <c r="G427" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I427" s="2" t="s">
+      <c r="H427" s="2" t="s">
         <v>1221</v>
       </c>
     </row>
@@ -17200,7 +17200,7 @@
       <c r="G428" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I428" s="2" t="s">
+      <c r="H428" s="2" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -17226,7 +17226,7 @@
       <c r="G429" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I429" s="2" t="s">
+      <c r="H429" s="2" t="s">
         <v>1226</v>
       </c>
     </row>
@@ -17252,7 +17252,7 @@
       <c r="G430" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I430" s="2" t="s">
+      <c r="H430" s="2" t="s">
         <v>1229</v>
       </c>
     </row>
@@ -17278,7 +17278,7 @@
       <c r="G431" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I431" s="2" t="s">
+      <c r="H431" s="2" t="s">
         <v>1232</v>
       </c>
     </row>
@@ -17304,7 +17304,7 @@
       <c r="G432" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I432" s="2" t="s">
+      <c r="H432" s="2" t="s">
         <v>1235</v>
       </c>
     </row>
@@ -17330,7 +17330,7 @@
       <c r="G433" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I433" s="2" t="s">
+      <c r="H433" s="2" t="s">
         <v>1238</v>
       </c>
     </row>
@@ -17356,7 +17356,7 @@
       <c r="G434" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I434" s="2" t="s">
+      <c r="H434" s="2" t="s">
         <v>1241</v>
       </c>
     </row>
@@ -17382,7 +17382,7 @@
       <c r="G435" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I435" s="2" t="s">
+      <c r="H435" s="2" t="s">
         <v>1244</v>
       </c>
     </row>
@@ -17408,7 +17408,7 @@
       <c r="G436" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I436" s="2" t="s">
+      <c r="H436" s="2" t="s">
         <v>1247</v>
       </c>
     </row>
@@ -17434,7 +17434,7 @@
       <c r="G437" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I437" s="2" t="s">
+      <c r="H437" s="2" t="s">
         <v>1250</v>
       </c>
     </row>
@@ -17460,7 +17460,7 @@
       <c r="G438" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I438" s="2" t="s">
+      <c r="H438" s="2" t="s">
         <v>1253</v>
       </c>
     </row>
@@ -17486,7 +17486,7 @@
       <c r="G439" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I439" s="2" t="s">
+      <c r="H439" s="2" t="s">
         <v>1256</v>
       </c>
     </row>
@@ -17512,7 +17512,7 @@
       <c r="G440" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I440" s="2" t="s">
+      <c r="H440" s="2" t="s">
         <v>1259</v>
       </c>
     </row>
@@ -17538,7 +17538,7 @@
       <c r="G441" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I441" s="2" t="s">
+      <c r="H441" s="2" t="s">
         <v>1262</v>
       </c>
     </row>
@@ -17564,7 +17564,7 @@
       <c r="G442" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I442" s="2" t="s">
+      <c r="H442" s="2" t="s">
         <v>1265</v>
       </c>
     </row>
@@ -17590,7 +17590,7 @@
       <c r="G443" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I443" s="2" t="s">
+      <c r="H443" s="2" t="s">
         <v>1268</v>
       </c>
     </row>
@@ -17616,7 +17616,7 @@
       <c r="G444" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I444" s="2" t="s">
+      <c r="H444" s="2" t="s">
         <v>1271</v>
       </c>
     </row>
@@ -17642,7 +17642,7 @@
       <c r="G445" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I445" s="2" t="s">
+      <c r="H445" s="2" t="s">
         <v>1274</v>
       </c>
     </row>
@@ -17668,7 +17668,7 @@
       <c r="G446" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I446" s="2" t="s">
+      <c r="H446" s="2" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -17694,7 +17694,7 @@
       <c r="G447" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I447" s="2" t="s">
+      <c r="H447" s="2" t="s">
         <v>1280</v>
       </c>
     </row>
@@ -17720,7 +17720,7 @@
       <c r="G448" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I448" s="2" t="s">
+      <c r="H448" s="2" t="s">
         <v>1283</v>
       </c>
     </row>
@@ -17746,7 +17746,7 @@
       <c r="G449" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I449" s="2" t="s">
+      <c r="H449" s="2" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -17772,7 +17772,7 @@
       <c r="G450" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I450" s="2" t="s">
+      <c r="H450" s="2" t="s">
         <v>1289</v>
       </c>
     </row>
@@ -17798,7 +17798,7 @@
       <c r="G451" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I451" s="2" t="s">
+      <c r="H451" s="2" t="s">
         <v>1292</v>
       </c>
     </row>
@@ -17824,7 +17824,7 @@
       <c r="G452" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I452" s="2" t="s">
+      <c r="H452" s="2" t="s">
         <v>1294</v>
       </c>
     </row>
@@ -17850,7 +17850,7 @@
       <c r="G453" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I453" s="2" t="s">
+      <c r="H453" s="2" t="s">
         <v>1297</v>
       </c>
     </row>
@@ -17876,7 +17876,7 @@
       <c r="G454" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I454" s="2" t="s">
+      <c r="H454" s="2" t="s">
         <v>1300</v>
       </c>
     </row>
@@ -17902,7 +17902,7 @@
       <c r="G455" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I455" s="2" t="s">
+      <c r="H455" s="2" t="s">
         <v>1303</v>
       </c>
     </row>
@@ -17928,7 +17928,7 @@
       <c r="G456" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I456" s="2" t="s">
+      <c r="H456" s="2" t="s">
         <v>1305</v>
       </c>
     </row>
@@ -17954,7 +17954,7 @@
       <c r="G457" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I457" s="2" t="s">
+      <c r="H457" s="2" t="s">
         <v>1308</v>
       </c>
     </row>
@@ -17980,7 +17980,7 @@
       <c r="G458" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I458" s="2" t="s">
+      <c r="H458" s="2" t="s">
         <v>1311</v>
       </c>
     </row>
@@ -18006,7 +18006,7 @@
       <c r="G459" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I459" s="2" t="s">
+      <c r="H459" s="2" t="s">
         <v>1313</v>
       </c>
     </row>
@@ -18032,7 +18032,7 @@
       <c r="G460" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I460" s="2" t="s">
+      <c r="H460" s="2" t="s">
         <v>1316</v>
       </c>
     </row>
@@ -18058,7 +18058,7 @@
       <c r="G461" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I461" s="2" t="s">
+      <c r="H461" s="2" t="s">
         <v>1319</v>
       </c>
     </row>
@@ -18084,7 +18084,7 @@
       <c r="G462" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I462" s="2" t="s">
+      <c r="H462" s="2" t="s">
         <v>1321</v>
       </c>
     </row>
@@ -18179,7 +18179,7 @@
       <c r="G466" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I466" s="2" t="s">
+      <c r="H466" s="2" t="s">
         <v>1330</v>
       </c>
     </row>
@@ -18205,7 +18205,7 @@
       <c r="G467" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I467" s="2" t="s">
+      <c r="H467" s="2" t="s">
         <v>1333</v>
       </c>
     </row>
@@ -18231,7 +18231,7 @@
       <c r="G468" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I468" s="2" t="s">
+      <c r="H468" s="2" t="s">
         <v>1336</v>
       </c>
     </row>
@@ -18257,7 +18257,7 @@
       <c r="G469" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I469" s="2" t="s">
+      <c r="H469" s="2" t="s">
         <v>1339</v>
       </c>
     </row>
@@ -18283,7 +18283,7 @@
       <c r="G470" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I470" s="2" t="s">
+      <c r="H470" s="2" t="s">
         <v>1342</v>
       </c>
     </row>
@@ -18309,7 +18309,7 @@
       <c r="G471" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I471" s="2" t="s">
+      <c r="H471" s="2" t="s">
         <v>1345</v>
       </c>
     </row>
@@ -18335,7 +18335,7 @@
       <c r="G472" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I472" s="2" t="s">
+      <c r="H472" s="2" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -18407,7 +18407,7 @@
       <c r="G475" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I475" s="2" t="s">
+      <c r="H475" s="2" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -18433,7 +18433,7 @@
       <c r="G476" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I476" s="2" t="s">
+      <c r="H476" s="2" t="s">
         <v>1357</v>
       </c>
     </row>
@@ -18459,7 +18459,7 @@
       <c r="G477" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I477" s="2" t="s">
+      <c r="H477" s="2" t="s">
         <v>1360</v>
       </c>
     </row>
@@ -18485,7 +18485,7 @@
       <c r="G478" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I478" s="2" t="s">
+      <c r="H478" s="2" t="s">
         <v>1362</v>
       </c>
     </row>
@@ -18511,7 +18511,7 @@
       <c r="G479" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I479" s="2" t="s">
+      <c r="H479" s="2" t="s">
         <v>1365</v>
       </c>
     </row>
@@ -18537,7 +18537,7 @@
       <c r="G480" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I480" s="2" t="s">
+      <c r="H480" s="2" t="s">
         <v>1368</v>
       </c>
     </row>
@@ -18563,7 +18563,7 @@
       <c r="G481" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I481" s="2" t="s">
+      <c r="H481" s="2" t="s">
         <v>1371</v>
       </c>
     </row>
@@ -18589,7 +18589,7 @@
       <c r="G482" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I482" s="2" t="s">
+      <c r="H482" s="2" t="s">
         <v>1374</v>
       </c>
     </row>
@@ -18615,7 +18615,7 @@
       <c r="G483" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I483" s="2" t="s">
+      <c r="H483" s="2" t="s">
         <v>1377</v>
       </c>
     </row>
@@ -18641,7 +18641,7 @@
       <c r="G484" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I484" s="2" t="s">
+      <c r="H484" s="2" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -18667,7 +18667,7 @@
       <c r="G485" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I485" s="2" t="s">
+      <c r="H485" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -18693,7 +18693,7 @@
       <c r="G486" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I486" s="2" t="s">
+      <c r="H486" s="2" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -18719,7 +18719,7 @@
       <c r="G487" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I487" s="2" t="s">
+      <c r="H487" s="2" t="s">
         <v>1389</v>
       </c>
     </row>
@@ -18745,7 +18745,7 @@
       <c r="G488" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I488" s="2" t="s">
+      <c r="H488" s="2" t="s">
         <v>1392</v>
       </c>
     </row>
@@ -18771,7 +18771,7 @@
       <c r="G489" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I489" s="2" t="s">
+      <c r="H489" s="2" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -18797,7 +18797,7 @@
       <c r="G490" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I490" s="2" t="s">
+      <c r="H490" s="2" t="s">
         <v>1398</v>
       </c>
     </row>
@@ -18823,7 +18823,7 @@
       <c r="G491" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I491" s="2" t="s">
+      <c r="H491" s="2" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -18849,7 +18849,7 @@
       <c r="G492" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I492" s="2" t="s">
+      <c r="H492" s="2" t="s">
         <v>1404</v>
       </c>
     </row>
@@ -18875,7 +18875,7 @@
       <c r="G493" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I493" s="2" t="s">
+      <c r="H493" s="2" t="s">
         <v>1407</v>
       </c>
     </row>
@@ -18901,7 +18901,7 @@
       <c r="G494" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I494" s="2" t="s">
+      <c r="H494" s="2" t="s">
         <v>1410</v>
       </c>
     </row>
@@ -18927,7 +18927,7 @@
       <c r="G495" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I495" s="2" t="s">
+      <c r="H495" s="2" t="s">
         <v>1413</v>
       </c>
     </row>
@@ -18953,7 +18953,7 @@
       <c r="G496" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I496" s="2" t="s">
+      <c r="H496" s="2" t="s">
         <v>1416</v>
       </c>
     </row>
@@ -18979,7 +18979,7 @@
       <c r="G497" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I497" s="2" t="s">
+      <c r="H497" s="2" t="s">
         <v>1419</v>
       </c>
     </row>
@@ -19005,7 +19005,7 @@
       <c r="G498" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I498" s="2" t="s">
+      <c r="H498" s="2" t="s">
         <v>1422</v>
       </c>
     </row>
@@ -19031,7 +19031,7 @@
       <c r="G499" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I499" s="2" t="s">
+      <c r="H499" s="2" t="s">
         <v>1425</v>
       </c>
     </row>
@@ -19080,7 +19080,7 @@
       <c r="G501" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I501" s="2" t="s">
+      <c r="H501" s="2" t="s">
         <v>1430</v>
       </c>
     </row>
@@ -19129,7 +19129,7 @@
       <c r="G503" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I503" s="2" t="s">
+      <c r="H503" s="2" t="s">
         <v>1435</v>
       </c>
     </row>
@@ -19155,7 +19155,7 @@
       <c r="G504" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I504" s="2" t="s">
+      <c r="H504" s="2" t="s">
         <v>1438</v>
       </c>
     </row>
@@ -19181,7 +19181,7 @@
       <c r="G505" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I505" s="2" t="s">
+      <c r="H505" s="2" t="s">
         <v>1440</v>
       </c>
     </row>
@@ -19207,7 +19207,7 @@
       <c r="G506" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I506" s="2" t="s">
+      <c r="H506" s="2" t="s">
         <v>1443</v>
       </c>
     </row>
@@ -19233,7 +19233,7 @@
       <c r="G507" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I507" s="2" t="s">
+      <c r="H507" s="2" t="s">
         <v>1446</v>
       </c>
     </row>
@@ -19259,7 +19259,7 @@
       <c r="G508" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I508" s="2" t="s">
+      <c r="H508" s="2" t="s">
         <v>1449</v>
       </c>
     </row>
@@ -19285,7 +19285,7 @@
       <c r="G509" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I509" s="2" t="s">
+      <c r="H509" s="2" t="s">
         <v>1452</v>
       </c>
     </row>
@@ -19311,7 +19311,7 @@
       <c r="G510" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I510" s="2" t="s">
+      <c r="H510" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
@@ -19337,7 +19337,7 @@
       <c r="G511" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I511" s="2" t="s">
+      <c r="H511" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
@@ -19363,7 +19363,7 @@
       <c r="G512" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I512" s="2" t="s">
+      <c r="H512" s="2" t="s">
         <v>1461</v>
       </c>
     </row>
@@ -19389,7 +19389,7 @@
       <c r="G513" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I513" s="2" t="s">
+      <c r="H513" s="2" t="s">
         <v>1464</v>
       </c>
     </row>
@@ -19415,7 +19415,7 @@
       <c r="G514" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I514" s="2" t="s">
+      <c r="H514" s="2" t="s">
         <v>1467</v>
       </c>
     </row>
@@ -19441,7 +19441,7 @@
       <c r="G515" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I515" s="2" t="s">
+      <c r="H515" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
@@ -19467,7 +19467,7 @@
       <c r="G516" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I516" s="2" t="s">
+      <c r="H516" s="2" t="s">
         <v>1473</v>
       </c>
     </row>
@@ -19493,7 +19493,7 @@
       <c r="G517" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I517" s="2" t="s">
+      <c r="H517" s="2" t="s">
         <v>1475</v>
       </c>
     </row>
@@ -19519,7 +19519,7 @@
       <c r="G518" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I518" s="2" t="s">
+      <c r="H518" s="2" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -19545,7 +19545,7 @@
       <c r="G519" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I519" s="2" t="s">
+      <c r="H519" s="2" t="s">
         <v>1481</v>
       </c>
     </row>
@@ -19571,7 +19571,7 @@
       <c r="G520" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I520" s="2" t="s">
+      <c r="H520" s="2" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -19597,7 +19597,7 @@
       <c r="G521" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I521" s="2" t="s">
+      <c r="H521" s="2" t="s">
         <v>1487</v>
       </c>
     </row>
@@ -19623,7 +19623,7 @@
       <c r="G522" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I522" s="2" t="s">
+      <c r="H522" s="2" t="s">
         <v>1490</v>
       </c>
     </row>
@@ -19649,7 +19649,7 @@
       <c r="G523" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I523" s="2" t="s">
+      <c r="H523" s="2" t="s">
         <v>1493</v>
       </c>
     </row>
@@ -19675,7 +19675,7 @@
       <c r="G524" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I524" s="2" t="s">
+      <c r="H524" s="2" t="s">
         <v>1495</v>
       </c>
     </row>
@@ -19701,7 +19701,7 @@
       <c r="G525" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I525" s="2" t="s">
+      <c r="H525" s="2" t="s">
         <v>1498</v>
       </c>
     </row>
@@ -19727,7 +19727,7 @@
       <c r="G526" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I526" s="2" t="s">
+      <c r="H526" s="2" t="s">
         <v>1501</v>
       </c>
     </row>
@@ -19753,7 +19753,7 @@
       <c r="G527" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I527" s="2" t="s">
+      <c r="H527" s="2" t="s">
         <v>1504</v>
       </c>
     </row>
@@ -19802,7 +19802,7 @@
       <c r="G529" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I529" s="2" t="s">
+      <c r="H529" s="2" t="s">
         <v>1509</v>
       </c>
     </row>
@@ -19828,7 +19828,7 @@
       <c r="G530" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I530" s="2" t="s">
+      <c r="H530" s="2" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -19854,7 +19854,7 @@
       <c r="G531" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I531" s="2" t="s">
+      <c r="H531" s="2" t="s">
         <v>1515</v>
       </c>
     </row>
@@ -19880,7 +19880,7 @@
       <c r="G532" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I532" s="2" t="s">
+      <c r="H532" s="2" t="s">
         <v>1518</v>
       </c>
     </row>
@@ -19906,7 +19906,7 @@
       <c r="G533" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I533" s="2" t="s">
+      <c r="H533" s="2" t="s">
         <v>1521</v>
       </c>
     </row>
@@ -19932,7 +19932,7 @@
       <c r="G534" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I534" s="2" t="s">
+      <c r="H534" s="2" t="s">
         <v>1524</v>
       </c>
     </row>
@@ -19958,7 +19958,7 @@
       <c r="G535" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I535" s="2" t="s">
+      <c r="H535" s="2" t="s">
         <v>1527</v>
       </c>
     </row>
@@ -19984,7 +19984,7 @@
       <c r="G536" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I536" s="2" t="s">
+      <c r="H536" s="2" t="s">
         <v>1530</v>
       </c>
     </row>
@@ -20010,7 +20010,7 @@
       <c r="G537" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I537" s="2" t="s">
+      <c r="H537" s="2" t="s">
         <v>1533</v>
       </c>
     </row>
@@ -20036,7 +20036,7 @@
       <c r="G538" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I538" s="2" t="s">
+      <c r="H538" s="2" t="s">
         <v>1536</v>
       </c>
     </row>
@@ -20062,7 +20062,7 @@
       <c r="G539" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I539" s="2" t="s">
+      <c r="H539" s="2" t="s">
         <v>1539</v>
       </c>
     </row>
@@ -20088,7 +20088,7 @@
       <c r="G540" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I540" s="2" t="s">
+      <c r="H540" s="2" t="s">
         <v>1542</v>
       </c>
     </row>
@@ -20114,7 +20114,7 @@
       <c r="G541" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I541" s="2" t="s">
+      <c r="H541" s="2" t="s">
         <v>1545</v>
       </c>
     </row>
@@ -20140,7 +20140,7 @@
       <c r="G542" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I542" s="2" t="s">
+      <c r="H542" s="2" t="s">
         <v>1548</v>
       </c>
     </row>
@@ -20166,7 +20166,7 @@
       <c r="G543" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I543" s="2" t="s">
+      <c r="H543" s="2" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -20192,7 +20192,7 @@
       <c r="G544" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I544" s="2" t="s">
+      <c r="H544" s="2" t="s">
         <v>1554</v>
       </c>
     </row>
@@ -20218,7 +20218,7 @@
       <c r="G545" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I545" s="2" t="s">
+      <c r="H545" s="2" t="s">
         <v>1556</v>
       </c>
     </row>
@@ -20244,7 +20244,7 @@
       <c r="G546" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I546" s="2" t="s">
+      <c r="H546" s="2" t="s">
         <v>1559</v>
       </c>
     </row>
@@ -20270,7 +20270,7 @@
       <c r="G547" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I547" s="2" t="s">
+      <c r="H547" s="2" t="s">
         <v>1562</v>
       </c>
     </row>
@@ -20296,7 +20296,7 @@
       <c r="G548" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I548" s="2" t="s">
+      <c r="H548" s="2" t="s">
         <v>1565</v>
       </c>
     </row>
@@ -20322,7 +20322,7 @@
       <c r="G549" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I549" s="2" t="s">
+      <c r="H549" s="2" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -20348,7 +20348,7 @@
       <c r="G550" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I550" s="2" t="s">
+      <c r="H550" s="2" t="s">
         <v>1571</v>
       </c>
     </row>
@@ -20374,7 +20374,7 @@
       <c r="G551" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I551" s="2" t="s">
+      <c r="H551" s="2" t="s">
         <v>1574</v>
       </c>
     </row>
@@ -20400,7 +20400,7 @@
       <c r="G552" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I552" s="2" t="s">
+      <c r="H552" s="2" t="s">
         <v>1576</v>
       </c>
     </row>
@@ -20426,7 +20426,7 @@
       <c r="G553" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I553" s="2" t="s">
+      <c r="H553" s="2" t="s">
         <v>1579</v>
       </c>
     </row>
@@ -20452,7 +20452,7 @@
       <c r="G554" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I554" s="2" t="s">
+      <c r="H554" s="2" t="s">
         <v>1582</v>
       </c>
     </row>
@@ -20478,7 +20478,7 @@
       <c r="G555" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I555" s="2" t="s">
+      <c r="H555" s="2" t="s">
         <v>1585</v>
       </c>
     </row>
@@ -20504,7 +20504,7 @@
       <c r="G556" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I556" s="2" t="s">
+      <c r="H556" s="2" t="s">
         <v>1588</v>
       </c>
     </row>
@@ -20530,7 +20530,7 @@
       <c r="G557" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I557" s="2" t="s">
+      <c r="H557" s="2" t="s">
         <v>1590</v>
       </c>
     </row>
@@ -20694,7 +20694,7 @@
       <c r="G564" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I564" s="2" t="s">
+      <c r="H564" s="2" t="s">
         <v>1605</v>
       </c>
     </row>
@@ -20720,7 +20720,7 @@
       <c r="G565" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I565" s="2" t="s">
+      <c r="H565" s="2" t="s">
         <v>1608</v>
       </c>
     </row>
@@ -20746,7 +20746,7 @@
       <c r="G566" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I566" s="2" t="s">
+      <c r="H566" s="2" t="s">
         <v>1611</v>
       </c>
     </row>
@@ -20772,7 +20772,7 @@
       <c r="G567" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I567" s="2" t="s">
+      <c r="H567" s="2" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -20798,7 +20798,7 @@
       <c r="G568" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I568" s="2" t="s">
+      <c r="H568" s="2" t="s">
         <v>1616</v>
       </c>
     </row>
@@ -20824,7 +20824,7 @@
       <c r="G569" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I569" s="2" t="s">
+      <c r="H569" s="2" t="s">
         <v>1619</v>
       </c>
     </row>
@@ -20850,7 +20850,7 @@
       <c r="G570" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I570" s="2" t="s">
+      <c r="H570" s="2" t="s">
         <v>1622</v>
       </c>
     </row>
@@ -20876,7 +20876,7 @@
       <c r="G571" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I571" s="2" t="s">
+      <c r="H571" s="2" t="s">
         <v>1625</v>
       </c>
     </row>
@@ -20902,7 +20902,7 @@
       <c r="G572" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I572" s="2" t="s">
+      <c r="H572" s="2" t="s">
         <v>1628</v>
       </c>
     </row>
@@ -20928,7 +20928,7 @@
       <c r="G573" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I573" s="2" t="s">
+      <c r="H573" s="2" t="s">
         <v>1631</v>
       </c>
     </row>
@@ -20954,7 +20954,7 @@
       <c r="G574" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I574" s="2" t="s">
+      <c r="H574" s="2" t="s">
         <v>1634</v>
       </c>
     </row>
@@ -20980,7 +20980,7 @@
       <c r="G575" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I575" s="2" t="s">
+      <c r="H575" s="2" t="s">
         <v>1637</v>
       </c>
     </row>
@@ -21006,7 +21006,7 @@
       <c r="G576" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I576" s="2" t="s">
+      <c r="H576" s="2" t="s">
         <v>1640</v>
       </c>
     </row>
@@ -21032,7 +21032,7 @@
       <c r="G577" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I577" s="2" t="s">
+      <c r="H577" s="2" t="s">
         <v>1643</v>
       </c>
     </row>
@@ -21058,7 +21058,7 @@
       <c r="G578" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I578" s="2" t="s">
+      <c r="H578" s="2" t="s">
         <v>1646</v>
       </c>
     </row>
@@ -21084,546 +21084,546 @@
       <c r="G579" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I579" s="2" t="s">
+      <c r="H579" s="2" t="s">
         <v>1649</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I2"/>
-    <hyperlink r:id="rId2" ref="I3"/>
-    <hyperlink r:id="rId3" ref="I4"/>
-    <hyperlink r:id="rId4" ref="I5"/>
-    <hyperlink r:id="rId5" ref="I6"/>
-    <hyperlink r:id="rId6" ref="I7"/>
-    <hyperlink r:id="rId7" ref="I9"/>
-    <hyperlink r:id="rId8" ref="I10"/>
-    <hyperlink r:id="rId9" ref="I11"/>
-    <hyperlink r:id="rId10" ref="I12"/>
-    <hyperlink r:id="rId11" ref="I13"/>
-    <hyperlink r:id="rId12" ref="I14"/>
-    <hyperlink r:id="rId13" ref="I15"/>
-    <hyperlink r:id="rId14" ref="I16"/>
-    <hyperlink r:id="rId15" ref="I17"/>
-    <hyperlink r:id="rId16" ref="I18"/>
-    <hyperlink r:id="rId17" ref="I19"/>
-    <hyperlink r:id="rId18" ref="I20"/>
-    <hyperlink r:id="rId19" ref="I21"/>
-    <hyperlink r:id="rId20" ref="I22"/>
-    <hyperlink r:id="rId21" ref="I23"/>
-    <hyperlink r:id="rId22" ref="I24"/>
-    <hyperlink r:id="rId23" ref="I25"/>
-    <hyperlink r:id="rId24" ref="I26"/>
-    <hyperlink r:id="rId25" ref="I27"/>
-    <hyperlink r:id="rId26" ref="I28"/>
-    <hyperlink r:id="rId27" ref="I29"/>
-    <hyperlink r:id="rId28" ref="I30"/>
-    <hyperlink r:id="rId29" ref="I31"/>
-    <hyperlink r:id="rId30" ref="I32"/>
-    <hyperlink r:id="rId31" ref="I33"/>
-    <hyperlink r:id="rId32" ref="I34"/>
-    <hyperlink r:id="rId33" ref="I35"/>
-    <hyperlink r:id="rId34" ref="I36"/>
-    <hyperlink r:id="rId35" ref="I37"/>
-    <hyperlink r:id="rId36" ref="I38"/>
-    <hyperlink r:id="rId37" ref="I39"/>
-    <hyperlink r:id="rId38" ref="I40"/>
-    <hyperlink r:id="rId39" ref="I41"/>
-    <hyperlink r:id="rId40" ref="I42"/>
-    <hyperlink r:id="rId41" ref="I43"/>
-    <hyperlink r:id="rId42" ref="I44"/>
-    <hyperlink r:id="rId43" ref="I45"/>
-    <hyperlink r:id="rId44" ref="I46"/>
-    <hyperlink r:id="rId45" ref="I47"/>
-    <hyperlink r:id="rId46" ref="I48"/>
-    <hyperlink r:id="rId47" ref="I49"/>
-    <hyperlink r:id="rId48" ref="I50"/>
-    <hyperlink r:id="rId49" ref="I54"/>
-    <hyperlink r:id="rId50" ref="I55"/>
-    <hyperlink r:id="rId51" ref="I56"/>
-    <hyperlink r:id="rId52" ref="I58"/>
-    <hyperlink r:id="rId53" ref="I59"/>
-    <hyperlink r:id="rId54" ref="I60"/>
-    <hyperlink r:id="rId55" ref="I61"/>
-    <hyperlink r:id="rId56" ref="I62"/>
-    <hyperlink r:id="rId57" ref="I63"/>
-    <hyperlink r:id="rId58" ref="I64"/>
-    <hyperlink r:id="rId59" ref="I65"/>
-    <hyperlink r:id="rId60" ref="I66"/>
-    <hyperlink r:id="rId61" ref="I67"/>
-    <hyperlink r:id="rId62" ref="I68"/>
-    <hyperlink r:id="rId63" ref="I69"/>
-    <hyperlink r:id="rId64" ref="I70"/>
-    <hyperlink r:id="rId65" ref="I71"/>
-    <hyperlink r:id="rId66" ref="I72"/>
-    <hyperlink r:id="rId67" ref="I73"/>
-    <hyperlink r:id="rId68" ref="I74"/>
-    <hyperlink r:id="rId69" ref="I75"/>
-    <hyperlink r:id="rId70" ref="I76"/>
-    <hyperlink r:id="rId71" ref="I77"/>
-    <hyperlink r:id="rId72" ref="I78"/>
-    <hyperlink r:id="rId73" ref="I79"/>
-    <hyperlink r:id="rId74" ref="I80"/>
-    <hyperlink r:id="rId75" ref="I81"/>
-    <hyperlink r:id="rId76" ref="I82"/>
-    <hyperlink r:id="rId77" ref="I83"/>
-    <hyperlink r:id="rId78" ref="I84"/>
-    <hyperlink r:id="rId79" ref="I85"/>
-    <hyperlink r:id="rId80" ref="I86"/>
-    <hyperlink r:id="rId81" ref="I87"/>
-    <hyperlink r:id="rId82" ref="I88"/>
-    <hyperlink r:id="rId83" ref="I89"/>
-    <hyperlink r:id="rId84" ref="I90"/>
-    <hyperlink r:id="rId85" ref="I91"/>
-    <hyperlink r:id="rId86" ref="I92"/>
-    <hyperlink r:id="rId87" ref="I93"/>
-    <hyperlink r:id="rId88" ref="I94"/>
-    <hyperlink r:id="rId89" ref="I95"/>
-    <hyperlink r:id="rId90" ref="I96"/>
-    <hyperlink r:id="rId91" ref="I97"/>
-    <hyperlink r:id="rId92" ref="I98"/>
-    <hyperlink r:id="rId93" ref="I99"/>
-    <hyperlink r:id="rId94" ref="I100"/>
-    <hyperlink r:id="rId95" ref="I101"/>
-    <hyperlink r:id="rId96" ref="I102"/>
-    <hyperlink r:id="rId97" ref="I103"/>
-    <hyperlink r:id="rId98" ref="I104"/>
-    <hyperlink r:id="rId99" ref="I105"/>
-    <hyperlink r:id="rId100" ref="I106"/>
-    <hyperlink r:id="rId101" ref="I108"/>
-    <hyperlink r:id="rId102" ref="I109"/>
-    <hyperlink r:id="rId103" ref="I110"/>
-    <hyperlink r:id="rId104" ref="I111"/>
-    <hyperlink r:id="rId105" ref="I112"/>
-    <hyperlink r:id="rId106" ref="I115"/>
-    <hyperlink r:id="rId107" ref="I116"/>
-    <hyperlink r:id="rId108" ref="I117"/>
-    <hyperlink r:id="rId109" ref="I118"/>
-    <hyperlink r:id="rId110" ref="I119"/>
-    <hyperlink r:id="rId111" ref="I120"/>
-    <hyperlink r:id="rId112" ref="I121"/>
-    <hyperlink r:id="rId113" ref="I122"/>
-    <hyperlink r:id="rId114" ref="I123"/>
-    <hyperlink r:id="rId115" ref="I124"/>
-    <hyperlink r:id="rId116" ref="I125"/>
-    <hyperlink r:id="rId117" ref="I126"/>
-    <hyperlink r:id="rId118" ref="I127"/>
-    <hyperlink r:id="rId119" ref="I128"/>
-    <hyperlink r:id="rId120" ref="I129"/>
-    <hyperlink r:id="rId121" ref="I130"/>
-    <hyperlink r:id="rId122" ref="I131"/>
-    <hyperlink r:id="rId123" ref="I132"/>
-    <hyperlink r:id="rId124" ref="I133"/>
-    <hyperlink r:id="rId125" ref="I134"/>
-    <hyperlink r:id="rId126" ref="I135"/>
-    <hyperlink r:id="rId127" ref="I136"/>
-    <hyperlink r:id="rId128" ref="I137"/>
-    <hyperlink r:id="rId129" ref="I138"/>
-    <hyperlink r:id="rId130" ref="I139"/>
-    <hyperlink r:id="rId131" ref="I140"/>
-    <hyperlink r:id="rId132" ref="I141"/>
-    <hyperlink r:id="rId133" ref="I142"/>
-    <hyperlink r:id="rId134" ref="I143"/>
-    <hyperlink r:id="rId135" ref="I144"/>
-    <hyperlink r:id="rId136" ref="I145"/>
-    <hyperlink r:id="rId137" ref="I146"/>
-    <hyperlink r:id="rId138" ref="I147"/>
-    <hyperlink r:id="rId139" ref="I148"/>
-    <hyperlink r:id="rId140" ref="I149"/>
-    <hyperlink r:id="rId141" ref="I150"/>
-    <hyperlink r:id="rId142" ref="I151"/>
-    <hyperlink r:id="rId143" ref="I152"/>
-    <hyperlink r:id="rId144" ref="I153"/>
-    <hyperlink r:id="rId145" ref="I154"/>
-    <hyperlink r:id="rId146" ref="I155"/>
-    <hyperlink r:id="rId147" ref="I156"/>
-    <hyperlink r:id="rId148" ref="I157"/>
-    <hyperlink r:id="rId149" ref="I158"/>
-    <hyperlink r:id="rId150" ref="I159"/>
-    <hyperlink r:id="rId151" ref="I160"/>
-    <hyperlink r:id="rId152" ref="I161"/>
-    <hyperlink r:id="rId153" ref="I162"/>
-    <hyperlink r:id="rId154" ref="I163"/>
-    <hyperlink r:id="rId155" ref="I164"/>
-    <hyperlink r:id="rId156" ref="I165"/>
-    <hyperlink r:id="rId157" ref="I166"/>
-    <hyperlink r:id="rId158" ref="I167"/>
-    <hyperlink r:id="rId159" ref="I168"/>
-    <hyperlink r:id="rId160" ref="I169"/>
-    <hyperlink r:id="rId161" ref="I170"/>
-    <hyperlink r:id="rId162" ref="I171"/>
-    <hyperlink r:id="rId163" ref="I172"/>
-    <hyperlink r:id="rId164" ref="I173"/>
-    <hyperlink r:id="rId165" ref="I174"/>
-    <hyperlink r:id="rId166" ref="I175"/>
-    <hyperlink r:id="rId167" ref="I176"/>
-    <hyperlink r:id="rId168" ref="I177"/>
-    <hyperlink r:id="rId169" ref="I178"/>
-    <hyperlink r:id="rId170" ref="I179"/>
-    <hyperlink r:id="rId171" ref="I180"/>
-    <hyperlink r:id="rId172" ref="I181"/>
-    <hyperlink r:id="rId173" ref="I182"/>
-    <hyperlink r:id="rId174" ref="I183"/>
-    <hyperlink r:id="rId175" ref="I184"/>
-    <hyperlink r:id="rId176" ref="I185"/>
-    <hyperlink r:id="rId177" ref="I186"/>
-    <hyperlink r:id="rId178" ref="I187"/>
-    <hyperlink r:id="rId179" ref="I188"/>
-    <hyperlink r:id="rId180" ref="I189"/>
-    <hyperlink r:id="rId181" ref="I190"/>
-    <hyperlink r:id="rId182" ref="I191"/>
-    <hyperlink r:id="rId183" ref="I192"/>
-    <hyperlink r:id="rId184" ref="I193"/>
-    <hyperlink r:id="rId185" ref="I194"/>
-    <hyperlink r:id="rId186" ref="I195"/>
-    <hyperlink r:id="rId187" ref="I197"/>
-    <hyperlink r:id="rId188" ref="I198"/>
-    <hyperlink r:id="rId189" ref="I199"/>
-    <hyperlink r:id="rId190" ref="I200"/>
-    <hyperlink r:id="rId191" ref="I201"/>
-    <hyperlink r:id="rId192" ref="I202"/>
-    <hyperlink r:id="rId193" ref="I203"/>
-    <hyperlink r:id="rId194" ref="I204"/>
-    <hyperlink r:id="rId195" ref="I205"/>
-    <hyperlink r:id="rId196" ref="I206"/>
-    <hyperlink r:id="rId197" ref="I207"/>
-    <hyperlink r:id="rId198" ref="I208"/>
-    <hyperlink r:id="rId199" ref="I209"/>
-    <hyperlink r:id="rId200" ref="I210"/>
-    <hyperlink r:id="rId201" ref="I211"/>
-    <hyperlink r:id="rId202" ref="I212"/>
-    <hyperlink r:id="rId203" ref="I213"/>
-    <hyperlink r:id="rId204" ref="I214"/>
-    <hyperlink r:id="rId205" ref="I215"/>
-    <hyperlink r:id="rId206" ref="I216"/>
-    <hyperlink r:id="rId207" ref="I217"/>
-    <hyperlink r:id="rId208" ref="I218"/>
-    <hyperlink r:id="rId209" ref="I219"/>
-    <hyperlink r:id="rId210" ref="I220"/>
-    <hyperlink r:id="rId211" ref="I221"/>
-    <hyperlink r:id="rId212" ref="I222"/>
-    <hyperlink r:id="rId213" ref="I224"/>
-    <hyperlink r:id="rId214" ref="I225"/>
-    <hyperlink r:id="rId215" ref="I226"/>
-    <hyperlink r:id="rId216" ref="I227"/>
-    <hyperlink r:id="rId217" ref="I228"/>
-    <hyperlink r:id="rId218" ref="I229"/>
-    <hyperlink r:id="rId219" ref="I230"/>
-    <hyperlink r:id="rId220" ref="I231"/>
-    <hyperlink r:id="rId221" ref="I232"/>
-    <hyperlink r:id="rId222" ref="I233"/>
-    <hyperlink r:id="rId223" ref="I234"/>
-    <hyperlink r:id="rId224" ref="I235"/>
-    <hyperlink r:id="rId225" ref="I236"/>
-    <hyperlink r:id="rId226" ref="I237"/>
-    <hyperlink r:id="rId227" ref="I238"/>
-    <hyperlink r:id="rId228" ref="I239"/>
-    <hyperlink r:id="rId229" ref="I240"/>
-    <hyperlink r:id="rId230" ref="I241"/>
-    <hyperlink r:id="rId231" ref="I242"/>
-    <hyperlink r:id="rId232" ref="I243"/>
-    <hyperlink r:id="rId233" ref="I244"/>
-    <hyperlink r:id="rId234" ref="I246"/>
-    <hyperlink r:id="rId235" ref="I247"/>
-    <hyperlink r:id="rId236" ref="I248"/>
-    <hyperlink r:id="rId237" ref="I249"/>
-    <hyperlink r:id="rId238" ref="I250"/>
-    <hyperlink r:id="rId239" ref="I252"/>
-    <hyperlink r:id="rId240" ref="I253"/>
-    <hyperlink r:id="rId241" ref="I254"/>
-    <hyperlink r:id="rId242" ref="I255"/>
-    <hyperlink r:id="rId243" ref="I256"/>
-    <hyperlink r:id="rId244" ref="I257"/>
-    <hyperlink r:id="rId245" ref="I258"/>
-    <hyperlink r:id="rId246" ref="I259"/>
-    <hyperlink r:id="rId247" ref="I260"/>
-    <hyperlink r:id="rId248" ref="I261"/>
-    <hyperlink r:id="rId249" ref="I262"/>
-    <hyperlink r:id="rId250" ref="I263"/>
-    <hyperlink r:id="rId251" ref="I264"/>
-    <hyperlink r:id="rId252" ref="I265"/>
-    <hyperlink r:id="rId253" ref="I266"/>
-    <hyperlink r:id="rId254" ref="I267"/>
-    <hyperlink r:id="rId255" ref="I268"/>
-    <hyperlink r:id="rId256" ref="I269"/>
-    <hyperlink r:id="rId257" ref="I270"/>
-    <hyperlink r:id="rId258" ref="I271"/>
-    <hyperlink r:id="rId259" ref="I272"/>
-    <hyperlink r:id="rId260" ref="I273"/>
-    <hyperlink r:id="rId261" ref="I274"/>
-    <hyperlink r:id="rId262" ref="I275"/>
-    <hyperlink r:id="rId263" ref="I276"/>
-    <hyperlink r:id="rId264" ref="I277"/>
-    <hyperlink r:id="rId265" ref="I279"/>
-    <hyperlink r:id="rId266" ref="I280"/>
-    <hyperlink r:id="rId267" ref="I281"/>
-    <hyperlink r:id="rId268" ref="I285"/>
-    <hyperlink r:id="rId269" ref="I286"/>
-    <hyperlink r:id="rId270" ref="I287"/>
-    <hyperlink r:id="rId271" ref="I289"/>
-    <hyperlink r:id="rId272" ref="I290"/>
-    <hyperlink r:id="rId273" ref="I291"/>
-    <hyperlink r:id="rId274" ref="I292"/>
-    <hyperlink r:id="rId275" ref="I293"/>
-    <hyperlink r:id="rId276" ref="I294"/>
-    <hyperlink r:id="rId277" ref="I295"/>
-    <hyperlink r:id="rId278" ref="I296"/>
-    <hyperlink r:id="rId279" ref="I297"/>
-    <hyperlink r:id="rId280" ref="I298"/>
-    <hyperlink r:id="rId281" ref="I299"/>
-    <hyperlink r:id="rId282" ref="I300"/>
-    <hyperlink r:id="rId283" ref="I302"/>
-    <hyperlink r:id="rId284" ref="I305"/>
-    <hyperlink r:id="rId285" ref="I306"/>
-    <hyperlink r:id="rId286" ref="I307"/>
-    <hyperlink r:id="rId287" ref="I308"/>
-    <hyperlink r:id="rId288" ref="I309"/>
-    <hyperlink r:id="rId289" ref="I311"/>
-    <hyperlink r:id="rId290" ref="I312"/>
-    <hyperlink r:id="rId291" ref="I313"/>
-    <hyperlink r:id="rId292" ref="I314"/>
-    <hyperlink r:id="rId293" ref="I315"/>
-    <hyperlink r:id="rId294" ref="I316"/>
-    <hyperlink r:id="rId295" ref="I319"/>
-    <hyperlink r:id="rId296" ref="I320"/>
-    <hyperlink r:id="rId297" ref="I321"/>
-    <hyperlink r:id="rId298" ref="I322"/>
-    <hyperlink r:id="rId299" ref="I323"/>
-    <hyperlink r:id="rId300" ref="I324"/>
-    <hyperlink r:id="rId301" ref="I325"/>
-    <hyperlink r:id="rId302" ref="I326"/>
-    <hyperlink r:id="rId303" ref="I327"/>
-    <hyperlink r:id="rId304" ref="I328"/>
-    <hyperlink r:id="rId305" ref="I329"/>
-    <hyperlink r:id="rId306" ref="I330"/>
-    <hyperlink r:id="rId307" ref="I331"/>
-    <hyperlink r:id="rId308" ref="I332"/>
-    <hyperlink r:id="rId309" ref="I333"/>
-    <hyperlink r:id="rId310" ref="I334"/>
-    <hyperlink r:id="rId311" ref="I335"/>
-    <hyperlink r:id="rId312" ref="I336"/>
-    <hyperlink r:id="rId313" ref="I337"/>
-    <hyperlink r:id="rId314" ref="I338"/>
-    <hyperlink r:id="rId315" ref="I339"/>
-    <hyperlink r:id="rId316" ref="I340"/>
-    <hyperlink r:id="rId317" ref="I341"/>
-    <hyperlink r:id="rId318" ref="I342"/>
-    <hyperlink r:id="rId319" ref="I343"/>
-    <hyperlink r:id="rId320" ref="I344"/>
-    <hyperlink r:id="rId321" ref="I345"/>
-    <hyperlink r:id="rId322" ref="I346"/>
-    <hyperlink r:id="rId323" ref="I347"/>
-    <hyperlink r:id="rId324" ref="I348"/>
-    <hyperlink r:id="rId325" ref="I349"/>
-    <hyperlink r:id="rId326" ref="I350"/>
-    <hyperlink r:id="rId327" ref="I351"/>
-    <hyperlink r:id="rId328" ref="I352"/>
-    <hyperlink r:id="rId329" ref="I353"/>
-    <hyperlink r:id="rId330" ref="I354"/>
-    <hyperlink r:id="rId331" ref="I355"/>
-    <hyperlink r:id="rId332" ref="I357"/>
-    <hyperlink r:id="rId333" ref="I358"/>
-    <hyperlink r:id="rId334" ref="I359"/>
-    <hyperlink r:id="rId335" ref="I360"/>
-    <hyperlink r:id="rId336" ref="I361"/>
-    <hyperlink r:id="rId337" ref="I362"/>
-    <hyperlink r:id="rId338" ref="I363"/>
-    <hyperlink r:id="rId339" ref="I364"/>
-    <hyperlink r:id="rId340" ref="I365"/>
-    <hyperlink r:id="rId341" ref="I367"/>
-    <hyperlink r:id="rId342" ref="I370"/>
-    <hyperlink r:id="rId343" ref="I371"/>
-    <hyperlink r:id="rId344" ref="I372"/>
-    <hyperlink r:id="rId345" ref="I373"/>
-    <hyperlink r:id="rId346" ref="I374"/>
-    <hyperlink r:id="rId347" ref="I375"/>
-    <hyperlink r:id="rId348" ref="I376"/>
-    <hyperlink r:id="rId349" ref="I377"/>
-    <hyperlink r:id="rId350" ref="I378"/>
-    <hyperlink r:id="rId351" ref="I379"/>
-    <hyperlink r:id="rId352" ref="I380"/>
-    <hyperlink r:id="rId353" ref="I381"/>
-    <hyperlink r:id="rId354" ref="I382"/>
-    <hyperlink r:id="rId355" ref="I383"/>
-    <hyperlink r:id="rId356" ref="I384"/>
-    <hyperlink r:id="rId357" ref="I385"/>
-    <hyperlink r:id="rId358" ref="I386"/>
-    <hyperlink r:id="rId359" ref="I387"/>
-    <hyperlink r:id="rId360" ref="I388"/>
-    <hyperlink r:id="rId361" ref="I389"/>
-    <hyperlink r:id="rId362" ref="I390"/>
-    <hyperlink r:id="rId363" ref="I393"/>
-    <hyperlink r:id="rId364" ref="I394"/>
-    <hyperlink r:id="rId365" ref="I395"/>
-    <hyperlink r:id="rId366" ref="I396"/>
-    <hyperlink r:id="rId367" ref="I397"/>
-    <hyperlink r:id="rId368" ref="I398"/>
-    <hyperlink r:id="rId369" ref="I399"/>
-    <hyperlink r:id="rId370" ref="I400"/>
-    <hyperlink r:id="rId371" ref="I401"/>
-    <hyperlink r:id="rId372" ref="I402"/>
-    <hyperlink r:id="rId373" ref="I403"/>
-    <hyperlink r:id="rId374" ref="I404"/>
-    <hyperlink r:id="rId375" ref="I405"/>
-    <hyperlink r:id="rId376" ref="I406"/>
-    <hyperlink r:id="rId377" ref="I407"/>
-    <hyperlink r:id="rId378" ref="I409"/>
-    <hyperlink r:id="rId379" ref="I410"/>
-    <hyperlink r:id="rId380" ref="I411"/>
-    <hyperlink r:id="rId381" ref="I412"/>
-    <hyperlink r:id="rId382" ref="I413"/>
-    <hyperlink r:id="rId383" ref="I414"/>
-    <hyperlink r:id="rId384" ref="I415"/>
-    <hyperlink r:id="rId385" ref="I416"/>
-    <hyperlink r:id="rId386" ref="I417"/>
-    <hyperlink r:id="rId387" ref="I418"/>
-    <hyperlink r:id="rId388" ref="I419"/>
-    <hyperlink r:id="rId389" ref="I420"/>
-    <hyperlink r:id="rId390" ref="I421"/>
-    <hyperlink r:id="rId391" ref="I422"/>
-    <hyperlink r:id="rId392" ref="I423"/>
-    <hyperlink r:id="rId393" ref="I424"/>
-    <hyperlink r:id="rId394" ref="I425"/>
-    <hyperlink r:id="rId395" ref="I426"/>
-    <hyperlink r:id="rId396" ref="I427"/>
-    <hyperlink r:id="rId397" ref="I428"/>
-    <hyperlink r:id="rId398" ref="I429"/>
-    <hyperlink r:id="rId399" ref="I430"/>
-    <hyperlink r:id="rId400" ref="I431"/>
-    <hyperlink r:id="rId401" ref="I432"/>
-    <hyperlink r:id="rId402" ref="I433"/>
-    <hyperlink r:id="rId403" ref="I434"/>
-    <hyperlink r:id="rId404" ref="I435"/>
-    <hyperlink r:id="rId405" ref="I436"/>
-    <hyperlink r:id="rId406" ref="I437"/>
-    <hyperlink r:id="rId407" ref="I438"/>
-    <hyperlink r:id="rId408" ref="I439"/>
-    <hyperlink r:id="rId409" ref="I440"/>
-    <hyperlink r:id="rId410" ref="I441"/>
-    <hyperlink r:id="rId411" ref="I442"/>
-    <hyperlink r:id="rId412" ref="I443"/>
-    <hyperlink r:id="rId413" ref="I444"/>
-    <hyperlink r:id="rId414" ref="I445"/>
-    <hyperlink r:id="rId415" ref="I446"/>
-    <hyperlink r:id="rId416" ref="I447"/>
-    <hyperlink r:id="rId417" ref="I448"/>
-    <hyperlink r:id="rId418" ref="I449"/>
-    <hyperlink r:id="rId419" ref="I450"/>
-    <hyperlink r:id="rId420" ref="I451"/>
-    <hyperlink r:id="rId421" ref="I452"/>
-    <hyperlink r:id="rId422" ref="I453"/>
-    <hyperlink r:id="rId423" ref="I454"/>
-    <hyperlink r:id="rId424" ref="I455"/>
-    <hyperlink r:id="rId425" ref="I456"/>
-    <hyperlink r:id="rId426" ref="I457"/>
-    <hyperlink r:id="rId427" ref="I458"/>
-    <hyperlink r:id="rId428" ref="I459"/>
-    <hyperlink r:id="rId429" ref="I460"/>
-    <hyperlink r:id="rId430" ref="I461"/>
-    <hyperlink r:id="rId431" ref="I462"/>
-    <hyperlink r:id="rId432" ref="I466"/>
-    <hyperlink r:id="rId433" ref="I467"/>
-    <hyperlink r:id="rId434" ref="I468"/>
-    <hyperlink r:id="rId435" ref="I469"/>
-    <hyperlink r:id="rId436" ref="I470"/>
-    <hyperlink r:id="rId437" ref="I471"/>
-    <hyperlink r:id="rId438" ref="I472"/>
-    <hyperlink r:id="rId439" ref="I475"/>
-    <hyperlink r:id="rId440" ref="I476"/>
-    <hyperlink r:id="rId441" ref="I477"/>
-    <hyperlink r:id="rId442" ref="I478"/>
-    <hyperlink r:id="rId443" ref="I479"/>
-    <hyperlink r:id="rId444" ref="I480"/>
-    <hyperlink r:id="rId445" ref="I481"/>
-    <hyperlink r:id="rId446" ref="I482"/>
-    <hyperlink r:id="rId447" ref="I483"/>
-    <hyperlink r:id="rId448" ref="I484"/>
-    <hyperlink r:id="rId449" ref="I485"/>
-    <hyperlink r:id="rId450" ref="I486"/>
-    <hyperlink r:id="rId451" ref="I487"/>
-    <hyperlink r:id="rId452" ref="I488"/>
-    <hyperlink r:id="rId453" ref="I489"/>
-    <hyperlink r:id="rId454" ref="I490"/>
-    <hyperlink r:id="rId455" ref="I491"/>
-    <hyperlink r:id="rId456" ref="I492"/>
-    <hyperlink r:id="rId457" ref="I493"/>
-    <hyperlink r:id="rId458" ref="I494"/>
-    <hyperlink r:id="rId459" ref="I495"/>
-    <hyperlink r:id="rId460" ref="I496"/>
-    <hyperlink r:id="rId461" ref="I497"/>
-    <hyperlink r:id="rId462" ref="I498"/>
-    <hyperlink r:id="rId463" ref="I499"/>
-    <hyperlink r:id="rId464" ref="I501"/>
-    <hyperlink r:id="rId465" ref="I503"/>
-    <hyperlink r:id="rId466" ref="I504"/>
-    <hyperlink r:id="rId467" ref="I505"/>
-    <hyperlink r:id="rId468" ref="I506"/>
-    <hyperlink r:id="rId469" ref="I507"/>
-    <hyperlink r:id="rId470" ref="I508"/>
-    <hyperlink r:id="rId471" ref="I509"/>
-    <hyperlink r:id="rId472" ref="I510"/>
-    <hyperlink r:id="rId473" ref="I511"/>
-    <hyperlink r:id="rId474" ref="I512"/>
-    <hyperlink r:id="rId475" ref="I513"/>
-    <hyperlink r:id="rId476" ref="I514"/>
-    <hyperlink r:id="rId477" ref="I515"/>
-    <hyperlink r:id="rId478" ref="I516"/>
-    <hyperlink r:id="rId479" ref="I517"/>
-    <hyperlink r:id="rId480" ref="I518"/>
-    <hyperlink r:id="rId481" ref="I519"/>
-    <hyperlink r:id="rId482" ref="I520"/>
-    <hyperlink r:id="rId483" ref="I521"/>
-    <hyperlink r:id="rId484" ref="I522"/>
-    <hyperlink r:id="rId485" ref="I523"/>
-    <hyperlink r:id="rId486" ref="I524"/>
-    <hyperlink r:id="rId487" ref="I525"/>
-    <hyperlink r:id="rId488" ref="I526"/>
-    <hyperlink r:id="rId489" ref="I527"/>
-    <hyperlink r:id="rId490" ref="I529"/>
-    <hyperlink r:id="rId491" ref="I530"/>
-    <hyperlink r:id="rId492" ref="I531"/>
-    <hyperlink r:id="rId493" ref="I532"/>
-    <hyperlink r:id="rId494" ref="I533"/>
-    <hyperlink r:id="rId495" ref="I534"/>
-    <hyperlink r:id="rId496" ref="I535"/>
-    <hyperlink r:id="rId497" ref="I536"/>
-    <hyperlink r:id="rId498" ref="I537"/>
-    <hyperlink r:id="rId499" ref="I538"/>
-    <hyperlink r:id="rId500" ref="I539"/>
-    <hyperlink r:id="rId501" ref="I540"/>
-    <hyperlink r:id="rId502" ref="I541"/>
-    <hyperlink r:id="rId503" ref="I542"/>
-    <hyperlink r:id="rId504" ref="I543"/>
-    <hyperlink r:id="rId505" ref="I544"/>
-    <hyperlink r:id="rId506" ref="I545"/>
-    <hyperlink r:id="rId507" ref="I546"/>
-    <hyperlink r:id="rId508" ref="I547"/>
-    <hyperlink r:id="rId509" ref="I548"/>
-    <hyperlink r:id="rId510" ref="I549"/>
-    <hyperlink r:id="rId511" ref="I550"/>
-    <hyperlink r:id="rId512" ref="I551"/>
-    <hyperlink r:id="rId513" ref="I552"/>
-    <hyperlink r:id="rId514" ref="I553"/>
-    <hyperlink r:id="rId515" ref="I554"/>
-    <hyperlink r:id="rId516" ref="I555"/>
-    <hyperlink r:id="rId517" ref="I556"/>
-    <hyperlink r:id="rId518" ref="I557"/>
-    <hyperlink r:id="rId519" ref="I564"/>
-    <hyperlink r:id="rId520" ref="I565"/>
-    <hyperlink r:id="rId521" ref="I566"/>
-    <hyperlink r:id="rId522" ref="I567"/>
-    <hyperlink r:id="rId523" ref="I568"/>
-    <hyperlink r:id="rId524" ref="I569"/>
-    <hyperlink r:id="rId525" ref="I570"/>
-    <hyperlink r:id="rId526" ref="I571"/>
-    <hyperlink r:id="rId527" ref="I572"/>
-    <hyperlink r:id="rId528" ref="I573"/>
-    <hyperlink r:id="rId529" ref="I574"/>
-    <hyperlink r:id="rId530" ref="I575"/>
-    <hyperlink r:id="rId531" ref="I576"/>
-    <hyperlink r:id="rId532" ref="I577"/>
-    <hyperlink r:id="rId533" ref="I578"/>
-    <hyperlink r:id="rId534" ref="I579"/>
+    <hyperlink r:id="rId1" ref="H2"/>
+    <hyperlink r:id="rId2" ref="H3"/>
+    <hyperlink r:id="rId3" ref="H4"/>
+    <hyperlink r:id="rId4" ref="H5"/>
+    <hyperlink r:id="rId5" ref="H6"/>
+    <hyperlink r:id="rId6" ref="H7"/>
+    <hyperlink r:id="rId7" ref="H9"/>
+    <hyperlink r:id="rId8" ref="H10"/>
+    <hyperlink r:id="rId9" ref="H11"/>
+    <hyperlink r:id="rId10" ref="H12"/>
+    <hyperlink r:id="rId11" ref="H13"/>
+    <hyperlink r:id="rId12" ref="H14"/>
+    <hyperlink r:id="rId13" ref="H15"/>
+    <hyperlink r:id="rId14" ref="H16"/>
+    <hyperlink r:id="rId15" ref="H17"/>
+    <hyperlink r:id="rId16" ref="H18"/>
+    <hyperlink r:id="rId17" ref="H19"/>
+    <hyperlink r:id="rId18" ref="H20"/>
+    <hyperlink r:id="rId19" ref="H21"/>
+    <hyperlink r:id="rId20" ref="H22"/>
+    <hyperlink r:id="rId21" ref="H23"/>
+    <hyperlink r:id="rId22" ref="H24"/>
+    <hyperlink r:id="rId23" ref="H25"/>
+    <hyperlink r:id="rId24" ref="H26"/>
+    <hyperlink r:id="rId25" ref="H27"/>
+    <hyperlink r:id="rId26" ref="H28"/>
+    <hyperlink r:id="rId27" ref="H29"/>
+    <hyperlink r:id="rId28" ref="H30"/>
+    <hyperlink r:id="rId29" ref="H31"/>
+    <hyperlink r:id="rId30" ref="H32"/>
+    <hyperlink r:id="rId31" ref="H33"/>
+    <hyperlink r:id="rId32" ref="H34"/>
+    <hyperlink r:id="rId33" ref="H35"/>
+    <hyperlink r:id="rId34" ref="H36"/>
+    <hyperlink r:id="rId35" ref="H37"/>
+    <hyperlink r:id="rId36" ref="H38"/>
+    <hyperlink r:id="rId37" ref="H39"/>
+    <hyperlink r:id="rId38" ref="H40"/>
+    <hyperlink r:id="rId39" ref="H41"/>
+    <hyperlink r:id="rId40" ref="H42"/>
+    <hyperlink r:id="rId41" ref="H43"/>
+    <hyperlink r:id="rId42" ref="H44"/>
+    <hyperlink r:id="rId43" ref="H45"/>
+    <hyperlink r:id="rId44" ref="H46"/>
+    <hyperlink r:id="rId45" ref="H47"/>
+    <hyperlink r:id="rId46" ref="H48"/>
+    <hyperlink r:id="rId47" ref="H49"/>
+    <hyperlink r:id="rId48" ref="H50"/>
+    <hyperlink r:id="rId49" ref="H54"/>
+    <hyperlink r:id="rId50" ref="H55"/>
+    <hyperlink r:id="rId51" ref="H56"/>
+    <hyperlink r:id="rId52" ref="H58"/>
+    <hyperlink r:id="rId53" ref="H59"/>
+    <hyperlink r:id="rId54" ref="H60"/>
+    <hyperlink r:id="rId55" ref="H61"/>
+    <hyperlink r:id="rId56" ref="H62"/>
+    <hyperlink r:id="rId57" ref="H63"/>
+    <hyperlink r:id="rId58" ref="H64"/>
+    <hyperlink r:id="rId59" ref="H65"/>
+    <hyperlink r:id="rId60" ref="H66"/>
+    <hyperlink r:id="rId61" ref="H67"/>
+    <hyperlink r:id="rId62" ref="H68"/>
+    <hyperlink r:id="rId63" ref="H69"/>
+    <hyperlink r:id="rId64" ref="H70"/>
+    <hyperlink r:id="rId65" ref="H71"/>
+    <hyperlink r:id="rId66" ref="H72"/>
+    <hyperlink r:id="rId67" ref="H73"/>
+    <hyperlink r:id="rId68" ref="H74"/>
+    <hyperlink r:id="rId69" ref="H75"/>
+    <hyperlink r:id="rId70" ref="H76"/>
+    <hyperlink r:id="rId71" ref="H77"/>
+    <hyperlink r:id="rId72" ref="H78"/>
+    <hyperlink r:id="rId73" ref="H79"/>
+    <hyperlink r:id="rId74" ref="H80"/>
+    <hyperlink r:id="rId75" ref="H81"/>
+    <hyperlink r:id="rId76" ref="H82"/>
+    <hyperlink r:id="rId77" ref="H83"/>
+    <hyperlink r:id="rId78" ref="H84"/>
+    <hyperlink r:id="rId79" ref="H85"/>
+    <hyperlink r:id="rId80" ref="H86"/>
+    <hyperlink r:id="rId81" ref="H87"/>
+    <hyperlink r:id="rId82" ref="H88"/>
+    <hyperlink r:id="rId83" ref="H89"/>
+    <hyperlink r:id="rId84" ref="H90"/>
+    <hyperlink r:id="rId85" ref="H91"/>
+    <hyperlink r:id="rId86" ref="H92"/>
+    <hyperlink r:id="rId87" ref="H93"/>
+    <hyperlink r:id="rId88" ref="H94"/>
+    <hyperlink r:id="rId89" ref="H95"/>
+    <hyperlink r:id="rId90" ref="H96"/>
+    <hyperlink r:id="rId91" ref="H97"/>
+    <hyperlink r:id="rId92" ref="H98"/>
+    <hyperlink r:id="rId93" ref="H99"/>
+    <hyperlink r:id="rId94" ref="H100"/>
+    <hyperlink r:id="rId95" ref="H101"/>
+    <hyperlink r:id="rId96" ref="H102"/>
+    <hyperlink r:id="rId97" ref="H103"/>
+    <hyperlink r:id="rId98" ref="H104"/>
+    <hyperlink r:id="rId99" ref="H105"/>
+    <hyperlink r:id="rId100" ref="H106"/>
+    <hyperlink r:id="rId101" ref="H108"/>
+    <hyperlink r:id="rId102" ref="H109"/>
+    <hyperlink r:id="rId103" ref="H110"/>
+    <hyperlink r:id="rId104" ref="H111"/>
+    <hyperlink r:id="rId105" ref="H112"/>
+    <hyperlink r:id="rId106" ref="H115"/>
+    <hyperlink r:id="rId107" ref="H116"/>
+    <hyperlink r:id="rId108" ref="H117"/>
+    <hyperlink r:id="rId109" ref="H118"/>
+    <hyperlink r:id="rId110" ref="H119"/>
+    <hyperlink r:id="rId111" ref="H120"/>
+    <hyperlink r:id="rId112" ref="H121"/>
+    <hyperlink r:id="rId113" ref="H122"/>
+    <hyperlink r:id="rId114" ref="H123"/>
+    <hyperlink r:id="rId115" ref="H124"/>
+    <hyperlink r:id="rId116" ref="H125"/>
+    <hyperlink r:id="rId117" ref="H126"/>
+    <hyperlink r:id="rId118" ref="H127"/>
+    <hyperlink r:id="rId119" ref="H128"/>
+    <hyperlink r:id="rId120" ref="H129"/>
+    <hyperlink r:id="rId121" ref="H130"/>
+    <hyperlink r:id="rId122" ref="H131"/>
+    <hyperlink r:id="rId123" ref="H132"/>
+    <hyperlink r:id="rId124" ref="H133"/>
+    <hyperlink r:id="rId125" ref="H134"/>
+    <hyperlink r:id="rId126" ref="H135"/>
+    <hyperlink r:id="rId127" ref="H136"/>
+    <hyperlink r:id="rId128" ref="H137"/>
+    <hyperlink r:id="rId129" ref="H138"/>
+    <hyperlink r:id="rId130" ref="H139"/>
+    <hyperlink r:id="rId131" ref="H140"/>
+    <hyperlink r:id="rId132" ref="H141"/>
+    <hyperlink r:id="rId133" ref="H142"/>
+    <hyperlink r:id="rId134" ref="H143"/>
+    <hyperlink r:id="rId135" ref="H144"/>
+    <hyperlink r:id="rId136" ref="H145"/>
+    <hyperlink r:id="rId137" ref="H146"/>
+    <hyperlink r:id="rId138" ref="H147"/>
+    <hyperlink r:id="rId139" ref="H148"/>
+    <hyperlink r:id="rId140" ref="H149"/>
+    <hyperlink r:id="rId141" ref="H150"/>
+    <hyperlink r:id="rId142" ref="H151"/>
+    <hyperlink r:id="rId143" ref="H152"/>
+    <hyperlink r:id="rId144" ref="H153"/>
+    <hyperlink r:id="rId145" ref="H154"/>
+    <hyperlink r:id="rId146" ref="H155"/>
+    <hyperlink r:id="rId147" ref="H156"/>
+    <hyperlink r:id="rId148" ref="H157"/>
+    <hyperlink r:id="rId149" ref="H158"/>
+    <hyperlink r:id="rId150" ref="H159"/>
+    <hyperlink r:id="rId151" ref="H160"/>
+    <hyperlink r:id="rId152" ref="H161"/>
+    <hyperlink r:id="rId153" ref="H162"/>
+    <hyperlink r:id="rId154" ref="H163"/>
+    <hyperlink r:id="rId155" ref="H164"/>
+    <hyperlink r:id="rId156" ref="H165"/>
+    <hyperlink r:id="rId157" ref="H166"/>
+    <hyperlink r:id="rId158" ref="H167"/>
+    <hyperlink r:id="rId159" ref="H168"/>
+    <hyperlink r:id="rId160" ref="H169"/>
+    <hyperlink r:id="rId161" ref="H170"/>
+    <hyperlink r:id="rId162" ref="H171"/>
+    <hyperlink r:id="rId163" ref="H172"/>
+    <hyperlink r:id="rId164" ref="H173"/>
+    <hyperlink r:id="rId165" ref="H174"/>
+    <hyperlink r:id="rId166" ref="H175"/>
+    <hyperlink r:id="rId167" ref="H176"/>
+    <hyperlink r:id="rId168" ref="H177"/>
+    <hyperlink r:id="rId169" ref="H178"/>
+    <hyperlink r:id="rId170" ref="H179"/>
+    <hyperlink r:id="rId171" ref="H180"/>
+    <hyperlink r:id="rId172" ref="H181"/>
+    <hyperlink r:id="rId173" ref="H182"/>
+    <hyperlink r:id="rId174" ref="H183"/>
+    <hyperlink r:id="rId175" ref="H184"/>
+    <hyperlink r:id="rId176" ref="H185"/>
+    <hyperlink r:id="rId177" ref="H186"/>
+    <hyperlink r:id="rId178" ref="H187"/>
+    <hyperlink r:id="rId179" ref="H188"/>
+    <hyperlink r:id="rId180" ref="H189"/>
+    <hyperlink r:id="rId181" ref="H190"/>
+    <hyperlink r:id="rId182" ref="H191"/>
+    <hyperlink r:id="rId183" ref="H192"/>
+    <hyperlink r:id="rId184" ref="H193"/>
+    <hyperlink r:id="rId185" ref="H194"/>
+    <hyperlink r:id="rId186" ref="H195"/>
+    <hyperlink r:id="rId187" ref="H197"/>
+    <hyperlink r:id="rId188" ref="H198"/>
+    <hyperlink r:id="rId189" ref="H199"/>
+    <hyperlink r:id="rId190" ref="H200"/>
+    <hyperlink r:id="rId191" ref="H201"/>
+    <hyperlink r:id="rId192" ref="H202"/>
+    <hyperlink r:id="rId193" ref="H203"/>
+    <hyperlink r:id="rId194" ref="H204"/>
+    <hyperlink r:id="rId195" ref="H205"/>
+    <hyperlink r:id="rId196" ref="H206"/>
+    <hyperlink r:id="rId197" ref="H207"/>
+    <hyperlink r:id="rId198" ref="H208"/>
+    <hyperlink r:id="rId199" ref="H209"/>
+    <hyperlink r:id="rId200" ref="H210"/>
+    <hyperlink r:id="rId201" ref="H211"/>
+    <hyperlink r:id="rId202" ref="H212"/>
+    <hyperlink r:id="rId203" ref="H213"/>
+    <hyperlink r:id="rId204" ref="H214"/>
+    <hyperlink r:id="rId205" ref="H215"/>
+    <hyperlink r:id="rId206" ref="H216"/>
+    <hyperlink r:id="rId207" ref="H217"/>
+    <hyperlink r:id="rId208" ref="H218"/>
+    <hyperlink r:id="rId209" ref="H219"/>
+    <hyperlink r:id="rId210" ref="H220"/>
+    <hyperlink r:id="rId211" ref="H221"/>
+    <hyperlink r:id="rId212" ref="H222"/>
+    <hyperlink r:id="rId213" ref="H224"/>
+    <hyperlink r:id="rId214" ref="H225"/>
+    <hyperlink r:id="rId215" ref="H226"/>
+    <hyperlink r:id="rId216" ref="H227"/>
+    <hyperlink r:id="rId217" ref="H228"/>
+    <hyperlink r:id="rId218" ref="H229"/>
+    <hyperlink r:id="rId219" ref="H230"/>
+    <hyperlink r:id="rId220" ref="H231"/>
+    <hyperlink r:id="rId221" ref="H232"/>
+    <hyperlink r:id="rId222" ref="H233"/>
+    <hyperlink r:id="rId223" ref="H234"/>
+    <hyperlink r:id="rId224" ref="H235"/>
+    <hyperlink r:id="rId225" ref="H236"/>
+    <hyperlink r:id="rId226" ref="H237"/>
+    <hyperlink r:id="rId227" ref="H238"/>
+    <hyperlink r:id="rId228" ref="H239"/>
+    <hyperlink r:id="rId229" ref="H240"/>
+    <hyperlink r:id="rId230" ref="H241"/>
+    <hyperlink r:id="rId231" ref="H242"/>
+    <hyperlink r:id="rId232" ref="H243"/>
+    <hyperlink r:id="rId233" ref="H244"/>
+    <hyperlink r:id="rId234" ref="H246"/>
+    <hyperlink r:id="rId235" ref="H247"/>
+    <hyperlink r:id="rId236" ref="H248"/>
+    <hyperlink r:id="rId237" ref="H249"/>
+    <hyperlink r:id="rId238" ref="H250"/>
+    <hyperlink r:id="rId239" ref="H252"/>
+    <hyperlink r:id="rId240" ref="H253"/>
+    <hyperlink r:id="rId241" ref="H254"/>
+    <hyperlink r:id="rId242" ref="H255"/>
+    <hyperlink r:id="rId243" ref="H256"/>
+    <hyperlink r:id="rId244" ref="H257"/>
+    <hyperlink r:id="rId245" ref="H258"/>
+    <hyperlink r:id="rId246" ref="H259"/>
+    <hyperlink r:id="rId247" ref="H260"/>
+    <hyperlink r:id="rId248" ref="H261"/>
+    <hyperlink r:id="rId249" ref="H262"/>
+    <hyperlink r:id="rId250" ref="H263"/>
+    <hyperlink r:id="rId251" ref="H264"/>
+    <hyperlink r:id="rId252" ref="H265"/>
+    <hyperlink r:id="rId253" ref="H266"/>
+    <hyperlink r:id="rId254" ref="H267"/>
+    <hyperlink r:id="rId255" ref="H268"/>
+    <hyperlink r:id="rId256" ref="H269"/>
+    <hyperlink r:id="rId257" ref="H270"/>
+    <hyperlink r:id="rId258" ref="H271"/>
+    <hyperlink r:id="rId259" ref="H272"/>
+    <hyperlink r:id="rId260" ref="H273"/>
+    <hyperlink r:id="rId261" ref="H274"/>
+    <hyperlink r:id="rId262" ref="H275"/>
+    <hyperlink r:id="rId263" ref="H276"/>
+    <hyperlink r:id="rId264" ref="H277"/>
+    <hyperlink r:id="rId265" ref="H279"/>
+    <hyperlink r:id="rId266" ref="H280"/>
+    <hyperlink r:id="rId267" ref="H281"/>
+    <hyperlink r:id="rId268" ref="H285"/>
+    <hyperlink r:id="rId269" ref="H286"/>
+    <hyperlink r:id="rId270" ref="H287"/>
+    <hyperlink r:id="rId271" ref="H289"/>
+    <hyperlink r:id="rId272" ref="H290"/>
+    <hyperlink r:id="rId273" ref="H291"/>
+    <hyperlink r:id="rId274" ref="H292"/>
+    <hyperlink r:id="rId275" ref="H293"/>
+    <hyperlink r:id="rId276" ref="H294"/>
+    <hyperlink r:id="rId277" ref="H295"/>
+    <hyperlink r:id="rId278" ref="H296"/>
+    <hyperlink r:id="rId279" ref="H297"/>
+    <hyperlink r:id="rId280" ref="H298"/>
+    <hyperlink r:id="rId281" ref="H299"/>
+    <hyperlink r:id="rId282" ref="H300"/>
+    <hyperlink r:id="rId283" ref="H302"/>
+    <hyperlink r:id="rId284" ref="H305"/>
+    <hyperlink r:id="rId285" ref="H306"/>
+    <hyperlink r:id="rId286" ref="H307"/>
+    <hyperlink r:id="rId287" ref="H308"/>
+    <hyperlink r:id="rId288" ref="H309"/>
+    <hyperlink r:id="rId289" ref="H311"/>
+    <hyperlink r:id="rId290" ref="H312"/>
+    <hyperlink r:id="rId291" ref="H313"/>
+    <hyperlink r:id="rId292" ref="H314"/>
+    <hyperlink r:id="rId293" ref="H315"/>
+    <hyperlink r:id="rId294" ref="H316"/>
+    <hyperlink r:id="rId295" ref="H319"/>
+    <hyperlink r:id="rId296" ref="H320"/>
+    <hyperlink r:id="rId297" ref="H321"/>
+    <hyperlink r:id="rId298" ref="H322"/>
+    <hyperlink r:id="rId299" ref="H323"/>
+    <hyperlink r:id="rId300" ref="H324"/>
+    <hyperlink r:id="rId301" ref="H325"/>
+    <hyperlink r:id="rId302" ref="H326"/>
+    <hyperlink r:id="rId303" ref="H327"/>
+    <hyperlink r:id="rId304" ref="H328"/>
+    <hyperlink r:id="rId305" ref="H329"/>
+    <hyperlink r:id="rId306" ref="H330"/>
+    <hyperlink r:id="rId307" ref="H331"/>
+    <hyperlink r:id="rId308" ref="H332"/>
+    <hyperlink r:id="rId309" ref="H333"/>
+    <hyperlink r:id="rId310" ref="H334"/>
+    <hyperlink r:id="rId311" ref="H335"/>
+    <hyperlink r:id="rId312" ref="H336"/>
+    <hyperlink r:id="rId313" ref="H337"/>
+    <hyperlink r:id="rId314" ref="H338"/>
+    <hyperlink r:id="rId315" ref="H339"/>
+    <hyperlink r:id="rId316" ref="H340"/>
+    <hyperlink r:id="rId317" ref="H341"/>
+    <hyperlink r:id="rId318" ref="H342"/>
+    <hyperlink r:id="rId319" ref="H343"/>
+    <hyperlink r:id="rId320" ref="H344"/>
+    <hyperlink r:id="rId321" ref="H345"/>
+    <hyperlink r:id="rId322" ref="H346"/>
+    <hyperlink r:id="rId323" ref="H347"/>
+    <hyperlink r:id="rId324" ref="H348"/>
+    <hyperlink r:id="rId325" ref="H349"/>
+    <hyperlink r:id="rId326" ref="H350"/>
+    <hyperlink r:id="rId327" ref="H351"/>
+    <hyperlink r:id="rId328" ref="H352"/>
+    <hyperlink r:id="rId329" ref="H353"/>
+    <hyperlink r:id="rId330" ref="H354"/>
+    <hyperlink r:id="rId331" ref="H355"/>
+    <hyperlink r:id="rId332" ref="H357"/>
+    <hyperlink r:id="rId333" ref="H358"/>
+    <hyperlink r:id="rId334" ref="H359"/>
+    <hyperlink r:id="rId335" ref="H360"/>
+    <hyperlink r:id="rId336" ref="H361"/>
+    <hyperlink r:id="rId337" ref="H362"/>
+    <hyperlink r:id="rId338" ref="H363"/>
+    <hyperlink r:id="rId339" ref="H364"/>
+    <hyperlink r:id="rId340" ref="H365"/>
+    <hyperlink r:id="rId341" ref="H367"/>
+    <hyperlink r:id="rId342" ref="H370"/>
+    <hyperlink r:id="rId343" ref="H371"/>
+    <hyperlink r:id="rId344" ref="H372"/>
+    <hyperlink r:id="rId345" ref="H373"/>
+    <hyperlink r:id="rId346" ref="H374"/>
+    <hyperlink r:id="rId347" ref="H375"/>
+    <hyperlink r:id="rId348" ref="H376"/>
+    <hyperlink r:id="rId349" ref="H377"/>
+    <hyperlink r:id="rId350" ref="H378"/>
+    <hyperlink r:id="rId351" ref="H379"/>
+    <hyperlink r:id="rId352" ref="H380"/>
+    <hyperlink r:id="rId353" ref="H381"/>
+    <hyperlink r:id="rId354" ref="H382"/>
+    <hyperlink r:id="rId355" ref="H383"/>
+    <hyperlink r:id="rId356" ref="H384"/>
+    <hyperlink r:id="rId357" ref="H385"/>
+    <hyperlink r:id="rId358" ref="H386"/>
+    <hyperlink r:id="rId359" ref="H387"/>
+    <hyperlink r:id="rId360" ref="H388"/>
+    <hyperlink r:id="rId361" ref="H389"/>
+    <hyperlink r:id="rId362" ref="H390"/>
+    <hyperlink r:id="rId363" ref="H393"/>
+    <hyperlink r:id="rId364" ref="H394"/>
+    <hyperlink r:id="rId365" ref="H395"/>
+    <hyperlink r:id="rId366" ref="H396"/>
+    <hyperlink r:id="rId367" ref="H397"/>
+    <hyperlink r:id="rId368" ref="H398"/>
+    <hyperlink r:id="rId369" ref="H399"/>
+    <hyperlink r:id="rId370" ref="H400"/>
+    <hyperlink r:id="rId371" ref="H401"/>
+    <hyperlink r:id="rId372" ref="H402"/>
+    <hyperlink r:id="rId373" ref="H403"/>
+    <hyperlink r:id="rId374" ref="H404"/>
+    <hyperlink r:id="rId375" ref="H405"/>
+    <hyperlink r:id="rId376" ref="H406"/>
+    <hyperlink r:id="rId377" ref="H407"/>
+    <hyperlink r:id="rId378" ref="H409"/>
+    <hyperlink r:id="rId379" ref="H410"/>
+    <hyperlink r:id="rId380" ref="H411"/>
+    <hyperlink r:id="rId381" ref="H412"/>
+    <hyperlink r:id="rId382" ref="H413"/>
+    <hyperlink r:id="rId383" ref="H414"/>
+    <hyperlink r:id="rId384" ref="H415"/>
+    <hyperlink r:id="rId385" ref="H416"/>
+    <hyperlink r:id="rId386" ref="H417"/>
+    <hyperlink r:id="rId387" ref="H418"/>
+    <hyperlink r:id="rId388" ref="H419"/>
+    <hyperlink r:id="rId389" ref="H420"/>
+    <hyperlink r:id="rId390" ref="H421"/>
+    <hyperlink r:id="rId391" ref="H422"/>
+    <hyperlink r:id="rId392" ref="H423"/>
+    <hyperlink r:id="rId393" ref="H424"/>
+    <hyperlink r:id="rId394" ref="H425"/>
+    <hyperlink r:id="rId395" ref="H426"/>
+    <hyperlink r:id="rId396" ref="H427"/>
+    <hyperlink r:id="rId397" ref="H428"/>
+    <hyperlink r:id="rId398" ref="H429"/>
+    <hyperlink r:id="rId399" ref="H430"/>
+    <hyperlink r:id="rId400" ref="H431"/>
+    <hyperlink r:id="rId401" ref="H432"/>
+    <hyperlink r:id="rId402" ref="H433"/>
+    <hyperlink r:id="rId403" ref="H434"/>
+    <hyperlink r:id="rId404" ref="H435"/>
+    <hyperlink r:id="rId405" ref="H436"/>
+    <hyperlink r:id="rId406" ref="H437"/>
+    <hyperlink r:id="rId407" ref="H438"/>
+    <hyperlink r:id="rId408" ref="H439"/>
+    <hyperlink r:id="rId409" ref="H440"/>
+    <hyperlink r:id="rId410" ref="H441"/>
+    <hyperlink r:id="rId411" ref="H442"/>
+    <hyperlink r:id="rId412" ref="H443"/>
+    <hyperlink r:id="rId413" ref="H444"/>
+    <hyperlink r:id="rId414" ref="H445"/>
+    <hyperlink r:id="rId415" ref="H446"/>
+    <hyperlink r:id="rId416" ref="H447"/>
+    <hyperlink r:id="rId417" ref="H448"/>
+    <hyperlink r:id="rId418" ref="H449"/>
+    <hyperlink r:id="rId419" ref="H450"/>
+    <hyperlink r:id="rId420" ref="H451"/>
+    <hyperlink r:id="rId421" ref="H452"/>
+    <hyperlink r:id="rId422" ref="H453"/>
+    <hyperlink r:id="rId423" ref="H454"/>
+    <hyperlink r:id="rId424" ref="H455"/>
+    <hyperlink r:id="rId425" ref="H456"/>
+    <hyperlink r:id="rId426" ref="H457"/>
+    <hyperlink r:id="rId427" ref="H458"/>
+    <hyperlink r:id="rId428" ref="H459"/>
+    <hyperlink r:id="rId429" ref="H460"/>
+    <hyperlink r:id="rId430" ref="H461"/>
+    <hyperlink r:id="rId431" ref="H462"/>
+    <hyperlink r:id="rId432" ref="H466"/>
+    <hyperlink r:id="rId433" ref="H467"/>
+    <hyperlink r:id="rId434" ref="H468"/>
+    <hyperlink r:id="rId435" ref="H469"/>
+    <hyperlink r:id="rId436" ref="H470"/>
+    <hyperlink r:id="rId437" ref="H471"/>
+    <hyperlink r:id="rId438" ref="H472"/>
+    <hyperlink r:id="rId439" ref="H475"/>
+    <hyperlink r:id="rId440" ref="H476"/>
+    <hyperlink r:id="rId441" ref="H477"/>
+    <hyperlink r:id="rId442" ref="H478"/>
+    <hyperlink r:id="rId443" ref="H479"/>
+    <hyperlink r:id="rId444" ref="H480"/>
+    <hyperlink r:id="rId445" ref="H481"/>
+    <hyperlink r:id="rId446" ref="H482"/>
+    <hyperlink r:id="rId447" ref="H483"/>
+    <hyperlink r:id="rId448" ref="H484"/>
+    <hyperlink r:id="rId449" ref="H485"/>
+    <hyperlink r:id="rId450" ref="H486"/>
+    <hyperlink r:id="rId451" ref="H487"/>
+    <hyperlink r:id="rId452" ref="H488"/>
+    <hyperlink r:id="rId453" ref="H489"/>
+    <hyperlink r:id="rId454" ref="H490"/>
+    <hyperlink r:id="rId455" ref="H491"/>
+    <hyperlink r:id="rId456" ref="H492"/>
+    <hyperlink r:id="rId457" ref="H493"/>
+    <hyperlink r:id="rId458" ref="H494"/>
+    <hyperlink r:id="rId459" ref="H495"/>
+    <hyperlink r:id="rId460" ref="H496"/>
+    <hyperlink r:id="rId461" ref="H497"/>
+    <hyperlink r:id="rId462" ref="H498"/>
+    <hyperlink r:id="rId463" ref="H499"/>
+    <hyperlink r:id="rId464" ref="H501"/>
+    <hyperlink r:id="rId465" ref="H503"/>
+    <hyperlink r:id="rId466" ref="H504"/>
+    <hyperlink r:id="rId467" ref="H505"/>
+    <hyperlink r:id="rId468" ref="H506"/>
+    <hyperlink r:id="rId469" ref="H507"/>
+    <hyperlink r:id="rId470" ref="H508"/>
+    <hyperlink r:id="rId471" ref="H509"/>
+    <hyperlink r:id="rId472" ref="H510"/>
+    <hyperlink r:id="rId473" ref="H511"/>
+    <hyperlink r:id="rId474" ref="H512"/>
+    <hyperlink r:id="rId475" ref="H513"/>
+    <hyperlink r:id="rId476" ref="H514"/>
+    <hyperlink r:id="rId477" ref="H515"/>
+    <hyperlink r:id="rId478" ref="H516"/>
+    <hyperlink r:id="rId479" ref="H517"/>
+    <hyperlink r:id="rId480" ref="H518"/>
+    <hyperlink r:id="rId481" ref="H519"/>
+    <hyperlink r:id="rId482" ref="H520"/>
+    <hyperlink r:id="rId483" ref="H521"/>
+    <hyperlink r:id="rId484" ref="H522"/>
+    <hyperlink r:id="rId485" ref="H523"/>
+    <hyperlink r:id="rId486" ref="H524"/>
+    <hyperlink r:id="rId487" ref="H525"/>
+    <hyperlink r:id="rId488" ref="H526"/>
+    <hyperlink r:id="rId489" ref="H527"/>
+    <hyperlink r:id="rId490" ref="H529"/>
+    <hyperlink r:id="rId491" ref="H530"/>
+    <hyperlink r:id="rId492" ref="H531"/>
+    <hyperlink r:id="rId493" ref="H532"/>
+    <hyperlink r:id="rId494" ref="H533"/>
+    <hyperlink r:id="rId495" ref="H534"/>
+    <hyperlink r:id="rId496" ref="H535"/>
+    <hyperlink r:id="rId497" ref="H536"/>
+    <hyperlink r:id="rId498" ref="H537"/>
+    <hyperlink r:id="rId499" ref="H538"/>
+    <hyperlink r:id="rId500" ref="H539"/>
+    <hyperlink r:id="rId501" ref="H540"/>
+    <hyperlink r:id="rId502" ref="H541"/>
+    <hyperlink r:id="rId503" ref="H542"/>
+    <hyperlink r:id="rId504" ref="H543"/>
+    <hyperlink r:id="rId505" ref="H544"/>
+    <hyperlink r:id="rId506" ref="H545"/>
+    <hyperlink r:id="rId507" ref="H546"/>
+    <hyperlink r:id="rId508" ref="H547"/>
+    <hyperlink r:id="rId509" ref="H548"/>
+    <hyperlink r:id="rId510" ref="H549"/>
+    <hyperlink r:id="rId511" ref="H550"/>
+    <hyperlink r:id="rId512" ref="H551"/>
+    <hyperlink r:id="rId513" ref="H552"/>
+    <hyperlink r:id="rId514" ref="H553"/>
+    <hyperlink r:id="rId515" ref="H554"/>
+    <hyperlink r:id="rId516" ref="H555"/>
+    <hyperlink r:id="rId517" ref="H556"/>
+    <hyperlink r:id="rId518" ref="H557"/>
+    <hyperlink r:id="rId519" ref="H564"/>
+    <hyperlink r:id="rId520" ref="H565"/>
+    <hyperlink r:id="rId521" ref="H566"/>
+    <hyperlink r:id="rId522" ref="H567"/>
+    <hyperlink r:id="rId523" ref="H568"/>
+    <hyperlink r:id="rId524" ref="H569"/>
+    <hyperlink r:id="rId525" ref="H570"/>
+    <hyperlink r:id="rId526" ref="H571"/>
+    <hyperlink r:id="rId527" ref="H572"/>
+    <hyperlink r:id="rId528" ref="H573"/>
+    <hyperlink r:id="rId529" ref="H574"/>
+    <hyperlink r:id="rId530" ref="H575"/>
+    <hyperlink r:id="rId531" ref="H576"/>
+    <hyperlink r:id="rId532" ref="H577"/>
+    <hyperlink r:id="rId533" ref="H578"/>
+    <hyperlink r:id="rId534" ref="H579"/>
   </hyperlinks>
   <drawing r:id="rId535"/>
 </worksheet>
